--- a/ProtocolAnonymousME.xlsx
+++ b/ProtocolAnonymousME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,44 +542,50 @@
       <c r="C2" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>0.03324341773986816</v>
+        <v>0.03708125352859497</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06828522682189941</v>
+        <v>0.0835996150970459</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1345934867858887</v>
+        <v>0.1331167697906494</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0204010009765625</v>
+        <v>0.02292537689208984</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01144576072692871</v>
+        <v>0.01180754899978638</v>
       </c>
       <c r="L2" t="n">
-        <v>16519168</v>
+        <v>17484800</v>
       </c>
       <c r="M2" t="n">
-        <v>16519168</v>
+        <v>17484800</v>
       </c>
       <c r="N2" t="n">
-        <v>16519168</v>
+        <v>17484800</v>
       </c>
       <c r="O2" t="n">
-        <v>16519168</v>
+        <v>17484800</v>
       </c>
       <c r="P2" t="n">
-        <v>16519168</v>
+        <v>17484800</v>
       </c>
       <c r="Q2" t="n">
         <v>240</v>
@@ -603,44 +609,50 @@
       <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>0.04667377471923828</v>
+        <v>0.0501028299331665</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1267895698547363</v>
+        <v>0.1296690225601196</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2066888809204102</v>
+        <v>0.2066989898681641</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02398920059204102</v>
+        <v>0.02347965240478516</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01136636734008789</v>
+        <v>0.01205288171768188</v>
       </c>
       <c r="L3" t="n">
-        <v>16519168</v>
+        <v>17567744</v>
       </c>
       <c r="M3" t="n">
-        <v>16519168</v>
+        <v>17567744</v>
       </c>
       <c r="N3" t="n">
-        <v>17436672</v>
+        <v>17567744</v>
       </c>
       <c r="O3" t="n">
-        <v>17436672</v>
+        <v>17567744</v>
       </c>
       <c r="P3" t="n">
-        <v>17436672</v>
+        <v>17567744</v>
       </c>
       <c r="Q3" t="n">
         <v>400</v>
@@ -664,44 +676,50 @@
       <c r="C4" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G4" t="n">
-        <v>0.0505068302154541</v>
+        <v>0.05098022222518921</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08519506454467773</v>
+        <v>0.09009617567062378</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1369645595550537</v>
+        <v>0.1677150964736938</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03776407241821289</v>
+        <v>0.0344711184501648</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01237273216247559</v>
+        <v>0.0121387243270874</v>
       </c>
       <c r="L4" t="n">
-        <v>17436672</v>
+        <v>17567744</v>
       </c>
       <c r="M4" t="n">
-        <v>17436672</v>
+        <v>17567744</v>
       </c>
       <c r="N4" t="n">
-        <v>17436672</v>
+        <v>17567744</v>
       </c>
       <c r="O4" t="n">
-        <v>17436672</v>
+        <v>17567744</v>
       </c>
       <c r="P4" t="n">
-        <v>17436672</v>
+        <v>17567744</v>
       </c>
       <c r="Q4" t="n">
         <v>240</v>
@@ -725,44 +743,50 @@
       <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>0.05371356010437012</v>
+        <v>0.06204706430435181</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1685788631439209</v>
+        <v>0.1823030829429627</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2589864730834961</v>
+        <v>0.2869546413421631</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02194619178771973</v>
+        <v>0.02251172065734863</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01000809669494629</v>
+        <v>0.01177256107330322</v>
       </c>
       <c r="L5" t="n">
-        <v>17436672</v>
+        <v>17567744</v>
       </c>
       <c r="M5" t="n">
-        <v>17436672</v>
+        <v>17567744</v>
       </c>
       <c r="N5" t="n">
-        <v>17555456</v>
+        <v>17567744</v>
       </c>
       <c r="O5" t="n">
-        <v>17555456</v>
+        <v>17567744</v>
       </c>
       <c r="P5" t="n">
-        <v>17555456</v>
+        <v>17567744</v>
       </c>
       <c r="Q5" t="n">
         <v>560</v>
@@ -786,44 +810,50 @@
       <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G6" t="n">
-        <v>0.05693674087524414</v>
+        <v>0.06193088293075562</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1364676952362061</v>
+        <v>0.1408094525337219</v>
       </c>
       <c r="I6" t="n">
-        <v>0.220578670501709</v>
+        <v>0.214637279510498</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03341817855834961</v>
+        <v>0.03530621528625488</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01167416572570801</v>
+        <v>0.01176537275314331</v>
       </c>
       <c r="L6" t="n">
-        <v>17555456</v>
+        <v>17647616</v>
       </c>
       <c r="M6" t="n">
-        <v>17555456</v>
+        <v>17647616</v>
       </c>
       <c r="N6" t="n">
-        <v>17555456</v>
+        <v>17660928</v>
       </c>
       <c r="O6" t="n">
-        <v>17555456</v>
+        <v>17660928</v>
       </c>
       <c r="P6" t="n">
-        <v>17555456</v>
+        <v>17660928</v>
       </c>
       <c r="Q6" t="n">
         <v>400</v>
@@ -847,44 +877,50 @@
       <c r="C7" t="n">
         <v>15</v>
       </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G7" t="n">
-        <v>0.06079578399658203</v>
+        <v>0.06131898164749146</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1054081916809082</v>
+        <v>0.107347297668457</v>
       </c>
       <c r="I7" t="n">
-        <v>0.160477876663208</v>
+        <v>0.1580067396163941</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04744696617126465</v>
+        <v>0.04812906980514527</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01520991325378418</v>
+        <v>0.01175646781921387</v>
       </c>
       <c r="L7" t="n">
-        <v>17555456</v>
+        <v>17833984</v>
       </c>
       <c r="M7" t="n">
-        <v>17555456</v>
+        <v>17833984</v>
       </c>
       <c r="N7" t="n">
-        <v>17555456</v>
+        <v>17833984</v>
       </c>
       <c r="O7" t="n">
-        <v>17555456</v>
+        <v>17833984</v>
       </c>
       <c r="P7" t="n">
-        <v>17555456</v>
+        <v>17833984</v>
       </c>
       <c r="Q7" t="n">
         <v>240</v>
@@ -908,44 +944,50 @@
       <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>0.07827305793762207</v>
+        <v>0.07580015659332276</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2166171073913574</v>
+        <v>0.2298044443130493</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3336865901947021</v>
+        <v>0.3835782766342163</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02147817611694336</v>
+        <v>0.02391266822814941</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01004719734191895</v>
+        <v>0.01243458986282349</v>
       </c>
       <c r="L8" t="n">
-        <v>17555456</v>
+        <v>17946828.8</v>
       </c>
       <c r="M8" t="n">
-        <v>17555456</v>
+        <v>17948262.4</v>
       </c>
       <c r="N8" t="n">
-        <v>17555456</v>
+        <v>17949286.4</v>
       </c>
       <c r="O8" t="n">
-        <v>17694720</v>
+        <v>17953587.2</v>
       </c>
       <c r="P8" t="n">
-        <v>17694720</v>
+        <v>17953587.2</v>
       </c>
       <c r="Q8" t="n">
         <v>720</v>
@@ -969,44 +1011,50 @@
       <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>0.07208895683288574</v>
+        <v>0.07398484945297241</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1764545440673828</v>
+        <v>0.1857561469078064</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2698078155517578</v>
+        <v>0.28661949634552</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03099203109741211</v>
+        <v>0.03487319946289062</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01075124740600586</v>
+        <v>0.01145024299621582</v>
       </c>
       <c r="L9" t="n">
-        <v>17707008</v>
+        <v>18005606.4</v>
       </c>
       <c r="M9" t="n">
-        <v>17707008</v>
+        <v>18005606.4</v>
       </c>
       <c r="N9" t="n">
-        <v>17707008</v>
+        <v>18005606.4</v>
       </c>
       <c r="O9" t="n">
-        <v>17707008</v>
+        <v>18005606.4</v>
       </c>
       <c r="P9" t="n">
-        <v>17707008</v>
+        <v>18005606.4</v>
       </c>
       <c r="Q9" t="n">
         <v>560</v>
@@ -1030,44 +1078,50 @@
       <c r="C10" t="n">
         <v>15</v>
       </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G10" t="n">
-        <v>0.06735372543334961</v>
+        <v>0.1019685626029968</v>
       </c>
       <c r="H10" t="n">
-        <v>0.152590274810791</v>
+        <v>0.1505772829055786</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2218537330627441</v>
+        <v>0.2250005841255188</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0492711067199707</v>
+        <v>0.04642808437347412</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01037240028381348</v>
+        <v>0.01178537607192993</v>
       </c>
       <c r="L10" t="n">
-        <v>17707008</v>
+        <v>18038784</v>
       </c>
       <c r="M10" t="n">
-        <v>17707008</v>
+        <v>18038784</v>
       </c>
       <c r="N10" t="n">
-        <v>17707008</v>
+        <v>18038784</v>
       </c>
       <c r="O10" t="n">
-        <v>17707008</v>
+        <v>18038784</v>
       </c>
       <c r="P10" t="n">
-        <v>17707008</v>
+        <v>18038784</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -1091,44 +1145,50 @@
       <c r="C11" t="n">
         <v>20</v>
       </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G11" t="n">
-        <v>0.07763338088989258</v>
+        <v>0.0765501618385315</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1106894016265869</v>
+        <v>0.1189457416534424</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1686413288116455</v>
+        <v>0.1670358300209046</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06424188613891602</v>
+        <v>0.05949966907501221</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01304531097412109</v>
+        <v>0.01185966730117798</v>
       </c>
       <c r="L11" t="n">
-        <v>17707008</v>
+        <v>18038784</v>
       </c>
       <c r="M11" t="n">
-        <v>17707008</v>
+        <v>18038784</v>
       </c>
       <c r="N11" t="n">
-        <v>17707008</v>
+        <v>18038784</v>
       </c>
       <c r="O11" t="n">
-        <v>17707008</v>
+        <v>18038784</v>
       </c>
       <c r="P11" t="n">
-        <v>17707008</v>
+        <v>18038784</v>
       </c>
       <c r="Q11" t="n">
         <v>240</v>
@@ -1152,44 +1212,50 @@
       <c r="C12" t="n">
         <v>5</v>
       </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G12" t="n">
-        <v>0.08151483535766602</v>
+        <v>0.09021730422973633</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2625339031219482</v>
+        <v>0.2851812839508057</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3948650360107422</v>
+        <v>0.4462615251541138</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02472972869873047</v>
+        <v>0.0245904803276062</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0120396614074707</v>
+        <v>0.01277976036071777</v>
       </c>
       <c r="L12" t="n">
-        <v>17707008</v>
+        <v>18038784</v>
       </c>
       <c r="M12" t="n">
-        <v>17707008</v>
+        <v>18038784</v>
       </c>
       <c r="N12" t="n">
-        <v>17719296</v>
+        <v>18038784</v>
       </c>
       <c r="O12" t="n">
-        <v>17719296</v>
+        <v>18038784</v>
       </c>
       <c r="P12" t="n">
-        <v>17719296</v>
+        <v>18038784</v>
       </c>
       <c r="Q12" t="n">
         <v>880</v>
@@ -1213,44 +1279,50 @@
       <c r="C13" t="n">
         <v>10</v>
       </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G13" t="n">
-        <v>0.08159661293029785</v>
+        <v>0.09099094867706299</v>
       </c>
       <c r="H13" t="n">
-        <v>0.229849100112915</v>
+        <v>0.2539182782173157</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3398787975311279</v>
+        <v>0.413138747215271</v>
       </c>
       <c r="J13" t="n">
-        <v>0.03547811508178711</v>
+        <v>0.03738149404525757</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01297736167907715</v>
+        <v>0.01234042644500732</v>
       </c>
       <c r="L13" t="n">
-        <v>17719296</v>
+        <v>18038784</v>
       </c>
       <c r="M13" t="n">
-        <v>17719296</v>
+        <v>18038784</v>
       </c>
       <c r="N13" t="n">
-        <v>17719296</v>
+        <v>18038784</v>
       </c>
       <c r="O13" t="n">
-        <v>17719296</v>
+        <v>18038784</v>
       </c>
       <c r="P13" t="n">
-        <v>17719296</v>
+        <v>18038784</v>
       </c>
       <c r="Q13" t="n">
         <v>720</v>
@@ -1274,44 +1346,50 @@
       <c r="C14" t="n">
         <v>15</v>
       </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G14" t="n">
-        <v>0.09504985809326172</v>
+        <v>0.08686290979385376</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2014245986938477</v>
+        <v>0.2014338493347168</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2897822856903076</v>
+        <v>0.3005288243293762</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04316043853759766</v>
+        <v>0.04962769746780395</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0116579532623291</v>
+        <v>0.01241555213928223</v>
       </c>
       <c r="L14" t="n">
-        <v>17719296</v>
+        <v>18038784</v>
       </c>
       <c r="M14" t="n">
-        <v>17719296</v>
+        <v>18038784</v>
       </c>
       <c r="N14" t="n">
-        <v>17719296</v>
+        <v>18038784</v>
       </c>
       <c r="O14" t="n">
-        <v>17719296</v>
+        <v>18038784</v>
       </c>
       <c r="P14" t="n">
-        <v>17719296</v>
+        <v>18038784</v>
       </c>
       <c r="Q14" t="n">
         <v>560</v>
@@ -1335,44 +1413,50 @@
       <c r="C15" t="n">
         <v>20</v>
       </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G15" t="n">
-        <v>0.08708810806274414</v>
+        <v>0.1172281265258789</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1638679504394531</v>
+        <v>0.1683062076568604</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2377862930297852</v>
+        <v>0.241305935382843</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06281805038452148</v>
+        <v>0.06026414632797241</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01098179817199707</v>
+        <v>0.01245737075805664</v>
       </c>
       <c r="L15" t="n">
-        <v>17719296</v>
+        <v>18038784</v>
       </c>
       <c r="M15" t="n">
-        <v>17719296</v>
+        <v>18038784</v>
       </c>
       <c r="N15" t="n">
-        <v>17719296</v>
+        <v>18038784</v>
       </c>
       <c r="O15" t="n">
-        <v>17719296</v>
+        <v>18038784</v>
       </c>
       <c r="P15" t="n">
-        <v>17719296</v>
+        <v>18038784</v>
       </c>
       <c r="Q15" t="n">
         <v>400</v>
@@ -1396,44 +1480,50 @@
       <c r="C16" t="n">
         <v>25</v>
       </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G16" t="n">
-        <v>0.08243155479431152</v>
+        <v>0.09079371690750122</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1288371086120605</v>
+        <v>0.1312659621238708</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1734633445739746</v>
+        <v>0.1894299626350403</v>
       </c>
       <c r="J16" t="n">
-        <v>0.07652091979980469</v>
+        <v>0.07625970840454102</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01123285293579102</v>
+        <v>0.01284216642379761</v>
       </c>
       <c r="L16" t="n">
-        <v>17719296</v>
+        <v>18038784</v>
       </c>
       <c r="M16" t="n">
-        <v>17719296</v>
+        <v>18038784</v>
       </c>
       <c r="N16" t="n">
-        <v>17719296</v>
+        <v>18038784</v>
       </c>
       <c r="O16" t="n">
-        <v>17719296</v>
+        <v>18038784</v>
       </c>
       <c r="P16" t="n">
-        <v>17719296</v>
+        <v>18038784</v>
       </c>
       <c r="Q16" t="n">
         <v>240</v>
@@ -1457,44 +1547,50 @@
       <c r="C17" t="n">
         <v>5</v>
       </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" t="b">
-        <v>1</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G17" t="n">
-        <v>0.04450607299804688</v>
+        <v>0.05230002403259278</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1004009246826172</v>
+        <v>0.1086444020271301</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1808619499206543</v>
+        <v>0.1773667812347412</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02974104881286621</v>
+        <v>0.03130497932434082</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01364755630493164</v>
+        <v>0.01680339574813843</v>
       </c>
       <c r="L17" t="n">
-        <v>17719296</v>
+        <v>18265088</v>
       </c>
       <c r="M17" t="n">
-        <v>17719296</v>
+        <v>18265088</v>
       </c>
       <c r="N17" t="n">
-        <v>17719296</v>
+        <v>18278400</v>
       </c>
       <c r="O17" t="n">
-        <v>17719296</v>
+        <v>18278400</v>
       </c>
       <c r="P17" t="n">
-        <v>17719296</v>
+        <v>18278400</v>
       </c>
       <c r="Q17" t="n">
         <v>240</v>
@@ -1518,44 +1614,50 @@
       <c r="C18" t="n">
         <v>5</v>
       </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" t="b">
-        <v>1</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G18" t="n">
-        <v>0.06271123886108398</v>
+        <v>0.09316576719284057</v>
       </c>
       <c r="H18" t="n">
-        <v>0.174213171005249</v>
+        <v>0.1733617305755615</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2907328605651855</v>
+        <v>0.2838318467140198</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02848529815673828</v>
+        <v>0.03238540887832642</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01474237442016602</v>
+        <v>0.01682635545730591</v>
       </c>
       <c r="L18" t="n">
-        <v>17719296</v>
+        <v>18325504</v>
       </c>
       <c r="M18" t="n">
-        <v>17719296</v>
+        <v>18325504</v>
       </c>
       <c r="N18" t="n">
-        <v>17719296</v>
+        <v>18325504</v>
       </c>
       <c r="O18" t="n">
-        <v>17719296</v>
+        <v>18325504</v>
       </c>
       <c r="P18" t="n">
-        <v>17719296</v>
+        <v>18325504</v>
       </c>
       <c r="Q18" t="n">
         <v>400</v>
@@ -1579,44 +1681,50 @@
       <c r="C19" t="n">
         <v>10</v>
       </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G19" t="n">
-        <v>0.06436538696289062</v>
+        <v>0.06563197374343872</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1248581409454346</v>
+        <v>0.1206149578094482</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2054474353790283</v>
+        <v>0.1899056434631348</v>
       </c>
       <c r="J19" t="n">
-        <v>0.03992533683776855</v>
+        <v>0.04534704685211181</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01383090019226074</v>
+        <v>0.01538294553756714</v>
       </c>
       <c r="L19" t="n">
-        <v>17719296</v>
+        <v>18714624</v>
       </c>
       <c r="M19" t="n">
-        <v>17719296</v>
+        <v>18714624</v>
       </c>
       <c r="N19" t="n">
-        <v>17719296</v>
+        <v>18714624</v>
       </c>
       <c r="O19" t="n">
-        <v>17719296</v>
+        <v>18714624</v>
       </c>
       <c r="P19" t="n">
-        <v>17719296</v>
+        <v>18714624</v>
       </c>
       <c r="Q19" t="n">
         <v>240</v>
@@ -1640,44 +1748,50 @@
       <c r="C20" t="n">
         <v>5</v>
       </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" t="b">
-        <v>1</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G20" t="n">
-        <v>0.08701252937316895</v>
+        <v>0.0815778374671936</v>
       </c>
       <c r="H20" t="n">
-        <v>0.232459545135498</v>
+        <v>0.2386599540710449</v>
       </c>
       <c r="I20" t="n">
-        <v>0.37770676612854</v>
+        <v>0.3652477264404297</v>
       </c>
       <c r="J20" t="n">
-        <v>0.03047657012939453</v>
+        <v>0.03037753105163574</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01648950576782227</v>
+        <v>0.01534223556518555</v>
       </c>
       <c r="L20" t="n">
-        <v>17719296</v>
+        <v>18714624</v>
       </c>
       <c r="M20" t="n">
-        <v>17719296</v>
+        <v>18714624</v>
       </c>
       <c r="N20" t="n">
-        <v>17768448</v>
+        <v>18714624</v>
       </c>
       <c r="O20" t="n">
-        <v>17768448</v>
+        <v>18714624</v>
       </c>
       <c r="P20" t="n">
-        <v>17768448</v>
+        <v>18714624</v>
       </c>
       <c r="Q20" t="n">
         <v>560</v>
@@ -1701,44 +1815,50 @@
       <c r="C21" t="n">
         <v>10</v>
       </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" t="b">
-        <v>1</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G21" t="n">
-        <v>0.0835118293762207</v>
+        <v>0.08107197284698486</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1755766868591309</v>
+        <v>0.1896583914756775</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2757208347320557</v>
+        <v>0.2898860573768616</v>
       </c>
       <c r="J21" t="n">
-        <v>0.04405498504638672</v>
+        <v>0.07345622777938843</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01695585250854492</v>
+        <v>0.0159132719039917</v>
       </c>
       <c r="L21" t="n">
-        <v>17768448</v>
+        <v>18714624</v>
       </c>
       <c r="M21" t="n">
-        <v>17768448</v>
+        <v>18714624</v>
       </c>
       <c r="N21" t="n">
-        <v>17768448</v>
+        <v>18714624</v>
       </c>
       <c r="O21" t="n">
-        <v>17768448</v>
+        <v>18714624</v>
       </c>
       <c r="P21" t="n">
-        <v>17768448</v>
+        <v>18714624</v>
       </c>
       <c r="Q21" t="n">
         <v>400</v>
@@ -1762,44 +1882,50 @@
       <c r="C22" t="n">
         <v>15</v>
       </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" t="b">
-        <v>1</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G22" t="n">
-        <v>0.07851481437683105</v>
+        <v>0.08227540254592895</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1304211616516113</v>
+        <v>0.1402405261993408</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1922249794006348</v>
+        <v>0.211520779132843</v>
       </c>
       <c r="J22" t="n">
-        <v>0.06149554252624512</v>
+        <v>0.0650444507598877</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01508665084838867</v>
+        <v>0.0168933629989624</v>
       </c>
       <c r="L22" t="n">
-        <v>17768448</v>
+        <v>18714624</v>
       </c>
       <c r="M22" t="n">
-        <v>17768448</v>
+        <v>18714624</v>
       </c>
       <c r="N22" t="n">
-        <v>17768448</v>
+        <v>18714624</v>
       </c>
       <c r="O22" t="n">
-        <v>17768448</v>
+        <v>18714624</v>
       </c>
       <c r="P22" t="n">
-        <v>17768448</v>
+        <v>18714624</v>
       </c>
       <c r="Q22" t="n">
         <v>240</v>
@@ -1823,44 +1949,50 @@
       <c r="C23" t="n">
         <v>5</v>
       </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" t="b">
-        <v>1</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G23" t="n">
-        <v>0.09708714485168457</v>
+        <v>0.09951317310333252</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2977297306060791</v>
+        <v>0.3060453176498413</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4394574165344238</v>
+        <v>0.4977819442749024</v>
       </c>
       <c r="J23" t="n">
-        <v>0.03189659118652344</v>
+        <v>0.03084615468978882</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01660323143005371</v>
+        <v>0.01585086584091187</v>
       </c>
       <c r="L23" t="n">
-        <v>17768448</v>
+        <v>18819481.6</v>
       </c>
       <c r="M23" t="n">
-        <v>17768448</v>
+        <v>18819481.6</v>
       </c>
       <c r="N23" t="n">
-        <v>17768448</v>
+        <v>18832588.8</v>
       </c>
       <c r="O23" t="n">
-        <v>17768448</v>
+        <v>18832588.8</v>
       </c>
       <c r="P23" t="n">
-        <v>17768448</v>
+        <v>18832588.8</v>
       </c>
       <c r="Q23" t="n">
         <v>720</v>
@@ -1884,44 +2016,50 @@
       <c r="C24" t="n">
         <v>10</v>
       </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" t="b">
-        <v>1</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G24" t="n">
-        <v>0.09702849388122559</v>
+        <v>0.09817280769348144</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2469303607940674</v>
+        <v>0.2542278051376343</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3711388111114502</v>
+        <v>0.3821373581886292</v>
       </c>
       <c r="J24" t="n">
-        <v>0.04388976097106934</v>
+        <v>0.04717786312103271</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01580309867858887</v>
+        <v>0.01577317714691162</v>
       </c>
       <c r="L24" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="M24" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="N24" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="O24" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="P24" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="Q24" t="n">
         <v>560</v>
@@ -1945,44 +2083,50 @@
       <c r="C25" t="n">
         <v>15</v>
       </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" t="b">
-        <v>1</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G25" t="n">
-        <v>0.1062581539154053</v>
+        <v>0.09990431070327759</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2045414447784424</v>
+        <v>0.2090099453926086</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3211936950683594</v>
+        <v>0.3433483242988586</v>
       </c>
       <c r="J25" t="n">
-        <v>0.05906152725219727</v>
+        <v>0.06257106065750122</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01476263999938965</v>
+        <v>0.01570020914077759</v>
       </c>
       <c r="L25" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="M25" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="N25" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="O25" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="P25" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="Q25" t="n">
         <v>400</v>
@@ -2006,44 +2150,50 @@
       <c r="C26" t="n">
         <v>20</v>
       </c>
-      <c r="D26" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" t="b">
-        <v>1</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G26" t="n">
-        <v>0.09086132049560547</v>
+        <v>0.1031214475631714</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1509974002838135</v>
+        <v>0.1567266464233398</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2265398502349854</v>
+        <v>0.2309130191802979</v>
       </c>
       <c r="J26" t="n">
-        <v>0.07752490043640137</v>
+        <v>0.08407365083694458</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01692485809326172</v>
+        <v>0.01664953231811523</v>
       </c>
       <c r="L26" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="M26" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="N26" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="O26" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="P26" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="Q26" t="n">
         <v>240</v>
@@ -2067,44 +2217,50 @@
       <c r="C27" t="n">
         <v>5</v>
       </c>
-      <c r="D27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" t="b">
-        <v>1</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G27" t="n">
-        <v>0.1084034442901611</v>
+        <v>0.1173283338546753</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3829054832458496</v>
+        <v>0.3678060173988342</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5972697734832764</v>
+        <v>0.5963721990585327</v>
       </c>
       <c r="J27" t="n">
-        <v>0.03609466552734375</v>
+        <v>0.03137495517730713</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0199577808380127</v>
+        <v>0.01608449220657349</v>
       </c>
       <c r="L27" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="M27" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="N27" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="O27" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="P27" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="Q27" t="n">
         <v>880</v>
@@ -2128,44 +2284,50 @@
       <c r="C28" t="n">
         <v>10</v>
       </c>
-      <c r="D28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" t="b">
-        <v>1</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G28" t="n">
-        <v>0.1283328533172607</v>
+        <v>0.1165035128593445</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3241531848907471</v>
+        <v>0.3171099305152893</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4925460815429688</v>
+        <v>0.4711655259132385</v>
       </c>
       <c r="J28" t="n">
-        <v>0.04856753349304199</v>
+        <v>0.04773179292678833</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01745724678039551</v>
+        <v>0.01630868911743164</v>
       </c>
       <c r="L28" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="M28" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="N28" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="O28" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="P28" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="Q28" t="n">
         <v>720</v>
@@ -2189,44 +2351,50 @@
       <c r="C29" t="n">
         <v>15</v>
       </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" t="b">
-        <v>1</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G29" t="n">
-        <v>0.1108138561248779</v>
+        <v>0.121005368232727</v>
       </c>
       <c r="H29" t="n">
-        <v>0.292680025100708</v>
+        <v>0.3065614461898803</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4337863922119141</v>
+        <v>0.4057466745376587</v>
       </c>
       <c r="J29" t="n">
-        <v>0.05733942985534668</v>
+        <v>0.06461993455886841</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0173640251159668</v>
+        <v>0.01664572954177856</v>
       </c>
       <c r="L29" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="M29" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="N29" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="O29" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="P29" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="Q29" t="n">
         <v>560</v>
@@ -2250,44 +2418,50 @@
       <c r="C30" t="n">
         <v>20</v>
       </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" t="b">
-        <v>1</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G30" t="n">
-        <v>0.1211216449737549</v>
+        <v>0.1159293413162232</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2250189781188965</v>
+        <v>0.2184260845184326</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3264439105987549</v>
+        <v>0.3265002131462097</v>
       </c>
       <c r="J30" t="n">
-        <v>0.07954597473144531</v>
+        <v>0.08081648349761963</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01817822456359863</v>
+        <v>0.01626687049865723</v>
       </c>
       <c r="L30" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="M30" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="N30" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="O30" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="P30" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="Q30" t="n">
         <v>400</v>
@@ -2311,44 +2485,50 @@
       <c r="C31" t="n">
         <v>25</v>
       </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
-      <c r="E31" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" t="b">
-        <v>1</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G31" t="n">
-        <v>0.1196250915527344</v>
+        <v>0.1199913024902344</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1780991554260254</v>
+        <v>0.1762044310569763</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2435636520385742</v>
+        <v>0.2758787035942077</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1047317981719971</v>
+        <v>0.09835656881332397</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01495862007141113</v>
+        <v>0.01662354469299316</v>
       </c>
       <c r="L31" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="M31" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="N31" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="O31" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="P31" t="n">
-        <v>17768448</v>
+        <v>18976768</v>
       </c>
       <c r="Q31" t="n">
         <v>240</v>
@@ -2372,44 +2552,50 @@
       <c r="C32" t="n">
         <v>5</v>
       </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" t="b">
-        <v>1</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G32" t="n">
-        <v>0.06371641159057617</v>
+        <v>0.06939495801925659</v>
       </c>
       <c r="H32" t="n">
-        <v>0.150407075881958</v>
+        <v>0.1397969484329224</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2360947132110596</v>
+        <v>0.2339734554290772</v>
       </c>
       <c r="J32" t="n">
-        <v>0.03459620475769043</v>
+        <v>0.03910700082778931</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01908540725708008</v>
+        <v>0.021074378490448</v>
       </c>
       <c r="L32" t="n">
-        <v>17768448</v>
+        <v>19111936</v>
       </c>
       <c r="M32" t="n">
-        <v>17768448</v>
+        <v>19111936</v>
       </c>
       <c r="N32" t="n">
-        <v>17768448</v>
+        <v>19125452.8</v>
       </c>
       <c r="O32" t="n">
-        <v>17768448</v>
+        <v>19125452.8</v>
       </c>
       <c r="P32" t="n">
-        <v>17768448</v>
+        <v>19125452.8</v>
       </c>
       <c r="Q32" t="n">
         <v>240</v>
@@ -2433,44 +2619,50 @@
       <c r="C33" t="n">
         <v>5</v>
       </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" t="b">
-        <v>1</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G33" t="n">
-        <v>0.08098053932189941</v>
+        <v>0.08838510513305664</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2226762771606445</v>
+        <v>0.2188377618789673</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3305573463439941</v>
+        <v>0.3785171747207642</v>
       </c>
       <c r="J33" t="n">
-        <v>0.03628802299499512</v>
+        <v>0.04109125137329102</v>
       </c>
       <c r="K33" t="n">
-        <v>0.02063131332397461</v>
+        <v>0.02034441232681274</v>
       </c>
       <c r="L33" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="M33" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="N33" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="O33" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="P33" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="Q33" t="n">
         <v>400</v>
@@ -2494,44 +2686,50 @@
       <c r="C34" t="n">
         <v>10</v>
       </c>
-      <c r="D34" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" t="b">
-        <v>1</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G34" t="n">
-        <v>0.08652210235595703</v>
+        <v>0.08589555025100708</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1499395370483398</v>
+        <v>0.1613080978393555</v>
       </c>
       <c r="I34" t="n">
-        <v>0.246565580368042</v>
+        <v>0.2492318630218506</v>
       </c>
       <c r="J34" t="n">
-        <v>0.06730008125305176</v>
+        <v>0.06101036071777344</v>
       </c>
       <c r="K34" t="n">
-        <v>0.01972508430480957</v>
+        <v>0.02046438455581665</v>
       </c>
       <c r="L34" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="M34" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="N34" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="O34" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="P34" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="Q34" t="n">
         <v>240</v>
@@ -2555,44 +2753,50 @@
       <c r="C35" t="n">
         <v>5</v>
       </c>
-      <c r="D35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" t="b">
-        <v>1</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G35" t="n">
-        <v>0.09800887107849121</v>
+        <v>0.1104556083679199</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2815608978271484</v>
+        <v>0.308485746383667</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4480235576629639</v>
+        <v>0.4978214263916015</v>
       </c>
       <c r="J35" t="n">
-        <v>0.03844785690307617</v>
+        <v>0.039376699924469</v>
       </c>
       <c r="K35" t="n">
-        <v>0.02000951766967773</v>
+        <v>0.02128888368606567</v>
       </c>
       <c r="L35" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="M35" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="N35" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="O35" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="P35" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="Q35" t="n">
         <v>560</v>
@@ -2616,44 +2820,50 @@
       <c r="C36" t="n">
         <v>10</v>
       </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" t="b">
-        <v>1</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G36" t="n">
-        <v>0.09952235221862793</v>
+        <v>0.1083096146583557</v>
       </c>
       <c r="H36" t="n">
-        <v>0.223712682723999</v>
+        <v>0.2458306789398193</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3635828495025635</v>
+        <v>0.3668108463287353</v>
       </c>
       <c r="J36" t="n">
-        <v>0.05484199523925781</v>
+        <v>0.05967731475830078</v>
       </c>
       <c r="K36" t="n">
-        <v>0.02128887176513672</v>
+        <v>0.0205285906791687</v>
       </c>
       <c r="L36" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="M36" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="N36" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="O36" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="P36" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="Q36" t="n">
         <v>400</v>
@@ -2677,44 +2887,50 @@
       <c r="C37" t="n">
         <v>15</v>
       </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" t="b">
-        <v>1</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G37" t="n">
-        <v>0.09701108932495117</v>
+        <v>0.1036171793937683</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1720578670501709</v>
+        <v>0.1768592000007629</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2654519081115723</v>
+        <v>0.2607095360755921</v>
       </c>
       <c r="J37" t="n">
-        <v>0.07735562324523926</v>
+        <v>0.1095443964004517</v>
       </c>
       <c r="K37" t="n">
-        <v>0.01978182792663574</v>
+        <v>0.02076263427734375</v>
       </c>
       <c r="L37" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="M37" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="N37" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="O37" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="P37" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="Q37" t="n">
         <v>240</v>
@@ -2738,44 +2954,50 @@
       <c r="C38" t="n">
         <v>5</v>
       </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" t="b">
-        <v>1</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G38" t="n">
-        <v>0.1248905658721924</v>
+        <v>0.1240455985069275</v>
       </c>
       <c r="H38" t="n">
-        <v>0.3745009899139404</v>
+        <v>0.3771872520446777</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5700919628143311</v>
+        <v>0.5975601673126221</v>
       </c>
       <c r="J38" t="n">
-        <v>0.04319334030151367</v>
+        <v>0.03802025318145752</v>
       </c>
       <c r="K38" t="n">
-        <v>0.02332139015197754</v>
+        <v>0.01914467811584473</v>
       </c>
       <c r="L38" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="M38" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="N38" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="O38" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="P38" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="Q38" t="n">
         <v>720</v>
@@ -2799,44 +3021,50 @@
       <c r="C39" t="n">
         <v>10</v>
       </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="b">
-        <v>1</v>
-      </c>
-      <c r="F39" t="b">
-        <v>1</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G39" t="n">
-        <v>0.1140768527984619</v>
+        <v>0.1511296272277832</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3090882301330566</v>
+        <v>0.3225156307220459</v>
       </c>
       <c r="I39" t="n">
-        <v>0.4906065464019775</v>
+        <v>0.4921860098838806</v>
       </c>
       <c r="J39" t="n">
-        <v>0.06839776039123535</v>
+        <v>0.05885180234909058</v>
       </c>
       <c r="K39" t="n">
-        <v>0.01980042457580566</v>
+        <v>0.0207180380821228</v>
       </c>
       <c r="L39" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="M39" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="N39" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="O39" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="P39" t="n">
-        <v>17768448</v>
+        <v>19247104</v>
       </c>
       <c r="Q39" t="n">
         <v>560</v>
@@ -2860,44 +3088,50 @@
       <c r="C40" t="n">
         <v>15</v>
       </c>
-      <c r="D40" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" t="b">
-        <v>1</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G40" t="n">
-        <v>0.128420352935791</v>
+        <v>0.12857825756073</v>
       </c>
       <c r="H40" t="n">
-        <v>0.235722541809082</v>
+        <v>0.265840494632721</v>
       </c>
       <c r="I40" t="n">
-        <v>0.3657877445220947</v>
+        <v>0.390539801120758</v>
       </c>
       <c r="J40" t="n">
-        <v>0.07686591148376465</v>
+        <v>0.08123501539230346</v>
       </c>
       <c r="K40" t="n">
-        <v>0.01695489883422852</v>
+        <v>0.02042714357376098</v>
       </c>
       <c r="L40" t="n">
-        <v>17768448</v>
+        <v>19395788.8</v>
       </c>
       <c r="M40" t="n">
-        <v>17768448</v>
+        <v>19395788.8</v>
       </c>
       <c r="N40" t="n">
-        <v>17768448</v>
+        <v>19395788.8</v>
       </c>
       <c r="O40" t="n">
-        <v>17768448</v>
+        <v>19409305.6</v>
       </c>
       <c r="P40" t="n">
-        <v>17768448</v>
+        <v>19409305.6</v>
       </c>
       <c r="Q40" t="n">
         <v>400</v>
@@ -2921,44 +3155,50 @@
       <c r="C41" t="n">
         <v>20</v>
       </c>
-      <c r="D41" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" t="b">
-        <v>1</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G41" t="n">
-        <v>0.1163403987884521</v>
+        <v>0.1254115581512451</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1975464820861816</v>
+        <v>0.2235549688339233</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2673740386962891</v>
+        <v>0.2856992721557617</v>
       </c>
       <c r="J41" t="n">
-        <v>0.09603095054626465</v>
+        <v>0.1022548913955688</v>
       </c>
       <c r="K41" t="n">
-        <v>0.01992368698120117</v>
+        <v>0.01962682008743286</v>
       </c>
       <c r="L41" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="M41" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="N41" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="O41" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="P41" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="Q41" t="n">
         <v>240</v>
@@ -2982,44 +3222,50 @@
       <c r="C42" t="n">
         <v>5</v>
       </c>
-      <c r="D42" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" t="b">
-        <v>1</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G42" t="n">
-        <v>0.1398079395294189</v>
+        <v>0.1490127801895142</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4501001834869385</v>
+        <v>0.4899105191230774</v>
       </c>
       <c r="I42" t="n">
-        <v>0.6879646778106689</v>
+        <v>0.7610144972801208</v>
       </c>
       <c r="J42" t="n">
-        <v>0.03499507904052734</v>
+        <v>0.04008266925811767</v>
       </c>
       <c r="K42" t="n">
-        <v>0.01961207389831543</v>
+        <v>0.02005623579025268</v>
       </c>
       <c r="L42" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="M42" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="N42" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="O42" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="P42" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="Q42" t="n">
         <v>880</v>
@@ -3043,44 +3289,50 @@
       <c r="C43" t="n">
         <v>10</v>
       </c>
-      <c r="D43" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43" t="b">
-        <v>1</v>
-      </c>
-      <c r="F43" t="b">
-        <v>1</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G43" t="n">
-        <v>0.1374936103820801</v>
+        <v>0.1387800693511963</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4159791469573975</v>
+        <v>0.3934574127197266</v>
       </c>
       <c r="I43" t="n">
-        <v>0.6202616691589355</v>
+        <v>0.6216627717018127</v>
       </c>
       <c r="J43" t="n">
-        <v>0.06795454025268555</v>
+        <v>0.05766021013259888</v>
       </c>
       <c r="K43" t="n">
-        <v>0.02293586730957031</v>
+        <v>0.01950993537902832</v>
       </c>
       <c r="L43" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="M43" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="N43" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="O43" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="P43" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="Q43" t="n">
         <v>720</v>
@@ -3104,44 +3356,50 @@
       <c r="C44" t="n">
         <v>15</v>
       </c>
-      <c r="D44" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" t="b">
-        <v>1</v>
-      </c>
-      <c r="F44" t="b">
-        <v>1</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G44" t="n">
-        <v>0.1699175834655762</v>
+        <v>0.1434461832046509</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3145391941070557</v>
+        <v>0.3275190114974976</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4894680976867676</v>
+        <v>0.4880638360977173</v>
       </c>
       <c r="J44" t="n">
-        <v>0.07698559761047363</v>
+        <v>0.07465060949325561</v>
       </c>
       <c r="K44" t="n">
-        <v>0.02191543579101562</v>
+        <v>0.01918714046478271</v>
       </c>
       <c r="L44" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="M44" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="N44" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="O44" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="P44" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="Q44" t="n">
         <v>560</v>
@@ -3165,44 +3423,50 @@
       <c r="C45" t="n">
         <v>20</v>
       </c>
-      <c r="D45" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F45" t="b">
-        <v>1</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G45" t="n">
-        <v>0.1496126651763916</v>
+        <v>0.14800044298172</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2538619041442871</v>
+        <v>0.3014454007148742</v>
       </c>
       <c r="I45" t="n">
-        <v>0.4054286479949951</v>
+        <v>0.3990458488464356</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0884697437286377</v>
+        <v>0.09738308191299438</v>
       </c>
       <c r="K45" t="n">
-        <v>0.01692008972167969</v>
+        <v>0.01923197507858276</v>
       </c>
       <c r="L45" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="M45" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="N45" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="O45" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="P45" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="Q45" t="n">
         <v>400</v>
@@ -3226,44 +3490,50 @@
       <c r="C46" t="n">
         <v>25</v>
       </c>
-      <c r="D46" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" t="b">
-        <v>1</v>
-      </c>
-      <c r="F46" t="b">
-        <v>1</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="G46" t="n">
-        <v>0.12896728515625</v>
+        <v>0.1450551033020019</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2092299461364746</v>
+        <v>0.2153236508369446</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2891771793365479</v>
+        <v>0.3046613812446594</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1043438911437988</v>
+        <v>0.1223689436912537</v>
       </c>
       <c r="K46" t="n">
-        <v>0.01757240295410156</v>
+        <v>0.02049597501754761</v>
       </c>
       <c r="L46" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="M46" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="N46" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="O46" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="P46" t="n">
-        <v>17768448</v>
+        <v>19517440</v>
       </c>
       <c r="Q46" t="n">
         <v>240</v>
@@ -3272,6 +3542,1011 @@
         <v>240</v>
       </c>
       <c r="S46" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>('SS512', 512)</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>10</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0.01548228263854981</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.02672159671783447</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.04410717487335205</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.009464597702026368</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.003741562366485596</v>
+      </c>
+      <c r="L47" t="n">
+        <v>19692544</v>
+      </c>
+      <c r="M47" t="n">
+        <v>19692544</v>
+      </c>
+      <c r="N47" t="n">
+        <v>19698688</v>
+      </c>
+      <c r="O47" t="n">
+        <v>19725721.6</v>
+      </c>
+      <c r="P47" t="n">
+        <v>19725721.6</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>240</v>
+      </c>
+      <c r="R47" t="n">
+        <v>240</v>
+      </c>
+      <c r="S47" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>('SS512', 512)</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>15</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0.01897156238555908</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.04241315126419067</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.0668068766593933</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.008950948715209961</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.02928094863891601</v>
+      </c>
+      <c r="L48" t="n">
+        <v>19761971.2</v>
+      </c>
+      <c r="M48" t="n">
+        <v>19759104</v>
+      </c>
+      <c r="N48" t="n">
+        <v>19773849.6</v>
+      </c>
+      <c r="O48" t="n">
+        <v>19820544</v>
+      </c>
+      <c r="P48" t="n">
+        <v>19820544</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>400</v>
+      </c>
+      <c r="R48" t="n">
+        <v>400</v>
+      </c>
+      <c r="S48" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>('SS512', 512)</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>15</v>
+      </c>
+      <c r="C49" t="n">
+        <v>10</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0.01963448524475098</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.03111628293991089</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.04895111322402954</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.01318881511688232</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.003665792942047119</v>
+      </c>
+      <c r="L49" t="n">
+        <v>19729817.6</v>
+      </c>
+      <c r="M49" t="n">
+        <v>19739238.4</v>
+      </c>
+      <c r="N49" t="n">
+        <v>19739852.8</v>
+      </c>
+      <c r="O49" t="n">
+        <v>19743334.4</v>
+      </c>
+      <c r="P49" t="n">
+        <v>19743334.4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>240</v>
+      </c>
+      <c r="R49" t="n">
+        <v>240</v>
+      </c>
+      <c r="S49" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>('SS512', 512)</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>20</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0.02381938695907593</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.05928363800048828</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.09063293933868408</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.009242987632751465</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.003704452514648438</v>
+      </c>
+      <c r="L50" t="n">
+        <v>19818291.2</v>
+      </c>
+      <c r="M50" t="n">
+        <v>19814400</v>
+      </c>
+      <c r="N50" t="n">
+        <v>19810713.6</v>
+      </c>
+      <c r="O50" t="n">
+        <v>19849830.4</v>
+      </c>
+      <c r="P50" t="n">
+        <v>19850035.2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>560</v>
+      </c>
+      <c r="R50" t="n">
+        <v>560</v>
+      </c>
+      <c r="S50" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>('SS512', 512)</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>20</v>
+      </c>
+      <c r="C51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0.02324850559234619</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.04688292741775513</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.07428276538848877</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.01358250379562378</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.003733384609222412</v>
+      </c>
+      <c r="L51" t="n">
+        <v>19836723.2</v>
+      </c>
+      <c r="M51" t="n">
+        <v>19836723.2</v>
+      </c>
+      <c r="N51" t="n">
+        <v>19836723.2</v>
+      </c>
+      <c r="O51" t="n">
+        <v>19836723.2</v>
+      </c>
+      <c r="P51" t="n">
+        <v>19836723.2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>400</v>
+      </c>
+      <c r="R51" t="n">
+        <v>400</v>
+      </c>
+      <c r="S51" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>('SS512', 512)</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>20</v>
+      </c>
+      <c r="C52" t="n">
+        <v>15</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0.02276871204376221</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.03475840091705322</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.0525773286819458</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.01709252595901489</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.003538334369659424</v>
+      </c>
+      <c r="L52" t="n">
+        <v>19836928</v>
+      </c>
+      <c r="M52" t="n">
+        <v>19836928</v>
+      </c>
+      <c r="N52" t="n">
+        <v>19836928</v>
+      </c>
+      <c r="O52" t="n">
+        <v>19836928</v>
+      </c>
+      <c r="P52" t="n">
+        <v>19836928</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>240</v>
+      </c>
+      <c r="R52" t="n">
+        <v>240</v>
+      </c>
+      <c r="S52" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>('SS512', 512)</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>25</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02763504981994629</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.07204229831695556</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.1148300886154175</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.009586811065673828</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.00380483865737915</v>
+      </c>
+      <c r="L53" t="n">
+        <v>19900211.2</v>
+      </c>
+      <c r="M53" t="n">
+        <v>19877478.4</v>
+      </c>
+      <c r="N53" t="n">
+        <v>19887308.8</v>
+      </c>
+      <c r="O53" t="n">
+        <v>19919667.2</v>
+      </c>
+      <c r="P53" t="n">
+        <v>19919667.2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>720</v>
+      </c>
+      <c r="R53" t="n">
+        <v>720</v>
+      </c>
+      <c r="S53" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>('SS512', 512)</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>25</v>
+      </c>
+      <c r="C54" t="n">
+        <v>10</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0.02730401754379273</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.06014566421508789</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.09388471841812134</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.01318365335464478</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.003811979293823242</v>
+      </c>
+      <c r="L54" t="n">
+        <v>19840819.2</v>
+      </c>
+      <c r="M54" t="n">
+        <v>19838771.2</v>
+      </c>
+      <c r="N54" t="n">
+        <v>19847168</v>
+      </c>
+      <c r="O54" t="n">
+        <v>19899187.2</v>
+      </c>
+      <c r="P54" t="n">
+        <v>19899187.2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>560</v>
+      </c>
+      <c r="R54" t="n">
+        <v>560</v>
+      </c>
+      <c r="S54" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>('SS512', 512)</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>25</v>
+      </c>
+      <c r="C55" t="n">
+        <v>15</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02721133232116699</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.04946566820144653</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.07574298381805419</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.01735742092132568</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.003688466548919678</v>
+      </c>
+      <c r="L55" t="n">
+        <v>19902054.4</v>
+      </c>
+      <c r="M55" t="n">
+        <v>19902259.2</v>
+      </c>
+      <c r="N55" t="n">
+        <v>19902259.2</v>
+      </c>
+      <c r="O55" t="n">
+        <v>19902259.2</v>
+      </c>
+      <c r="P55" t="n">
+        <v>19902259.2</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>400</v>
+      </c>
+      <c r="R55" t="n">
+        <v>400</v>
+      </c>
+      <c r="S55" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>('SS512', 512)</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>25</v>
+      </c>
+      <c r="C56" t="n">
+        <v>20</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0.02610464096069336</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.038114333152771</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0560381531715393</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.02056385278701782</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.003502964973449707</v>
+      </c>
+      <c r="L56" t="n">
+        <v>19902464</v>
+      </c>
+      <c r="M56" t="n">
+        <v>19902464</v>
+      </c>
+      <c r="N56" t="n">
+        <v>19902464</v>
+      </c>
+      <c r="O56" t="n">
+        <v>19902464</v>
+      </c>
+      <c r="P56" t="n">
+        <v>19902464</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>240</v>
+      </c>
+      <c r="R56" t="n">
+        <v>240</v>
+      </c>
+      <c r="S56" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>('SS512', 512)</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>30</v>
+      </c>
+      <c r="C57" t="n">
+        <v>5</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0.03171069622039795</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.08846060037612916</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.1661802411079407</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.009491896629333496</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.003709232807159424</v>
+      </c>
+      <c r="L57" t="n">
+        <v>19902464</v>
+      </c>
+      <c r="M57" t="n">
+        <v>19902464</v>
+      </c>
+      <c r="N57" t="n">
+        <v>19902464</v>
+      </c>
+      <c r="O57" t="n">
+        <v>19902464</v>
+      </c>
+      <c r="P57" t="n">
+        <v>19902464</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>880</v>
+      </c>
+      <c r="R57" t="n">
+        <v>880</v>
+      </c>
+      <c r="S57" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>('SS512', 512)</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>30</v>
+      </c>
+      <c r="C58" t="n">
+        <v>10</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03142333030700684</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.07797465324401856</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.1193629384040833</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.01332181692123413</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.003718507289886474</v>
+      </c>
+      <c r="L58" t="n">
+        <v>19927244.8</v>
+      </c>
+      <c r="M58" t="n">
+        <v>19919257.6</v>
+      </c>
+      <c r="N58" t="n">
+        <v>19926425.6</v>
+      </c>
+      <c r="O58" t="n">
+        <v>19966361.6</v>
+      </c>
+      <c r="P58" t="n">
+        <v>19966361.6</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>720</v>
+      </c>
+      <c r="R58" t="n">
+        <v>720</v>
+      </c>
+      <c r="S58" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>('SS512', 512)</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>30</v>
+      </c>
+      <c r="C59" t="n">
+        <v>15</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03146786689758301</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.06641331911087037</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.0985939621925354</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.01709088087081909</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.003586077690124512</v>
+      </c>
+      <c r="L59" t="n">
+        <v>19986227.2</v>
+      </c>
+      <c r="M59" t="n">
+        <v>19986227.2</v>
+      </c>
+      <c r="N59" t="n">
+        <v>19989913.6</v>
+      </c>
+      <c r="O59" t="n">
+        <v>20035993.6</v>
+      </c>
+      <c r="P59" t="n">
+        <v>20035993.6</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>560</v>
+      </c>
+      <c r="R59" t="n">
+        <v>560</v>
+      </c>
+      <c r="S59" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>('SS512', 512)</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>30</v>
+      </c>
+      <c r="C60" t="n">
+        <v>20</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03104461431503296</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.05455769300460815</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.08014487028121949</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.02066881656646729</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.003698694705963135</v>
+      </c>
+      <c r="L60" t="n">
+        <v>19943628.8</v>
+      </c>
+      <c r="M60" t="n">
+        <v>19943628.8</v>
+      </c>
+      <c r="N60" t="n">
+        <v>19943628.8</v>
+      </c>
+      <c r="O60" t="n">
+        <v>19943628.8</v>
+      </c>
+      <c r="P60" t="n">
+        <v>19943628.8</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>400</v>
+      </c>
+      <c r="R60" t="n">
+        <v>400</v>
+      </c>
+      <c r="S60" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>('SS512', 512)</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>30</v>
+      </c>
+      <c r="C61" t="n">
+        <v>25</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0.03062041997909546</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.04294040203094483</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.05973590612411499</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.024354088306427</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.003506970405578613</v>
+      </c>
+      <c r="L61" t="n">
+        <v>19943424</v>
+      </c>
+      <c r="M61" t="n">
+        <v>19943424</v>
+      </c>
+      <c r="N61" t="n">
+        <v>19943424</v>
+      </c>
+      <c r="O61" t="n">
+        <v>19943424</v>
+      </c>
+      <c r="P61" t="n">
+        <v>19943424</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>240</v>
+      </c>
+      <c r="R61" t="n">
+        <v>240</v>
+      </c>
+      <c r="S61" t="n">
         <v>72</v>
       </c>
     </row>

--- a/ProtocolAnonymousME.xlsx
+++ b/ProtocolAnonymousME.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,95 +436,100 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Curve</t>
+          <t>curveType</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>secparam</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>l</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>k</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>isSystemValid</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>isDeriverPassed</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isProtocolCorrect</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Setup (s)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>KGen (s)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>DerivedKGen (s)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Enc (s)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Dec (s)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Setup (B)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>KGen (B)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>DerivedKGen (B)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Enc (B)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Dec (B)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>SK (B)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>SK' (B)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>CT</t>
         </is>
@@ -537,16 +542,14 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>512</v>
+      </c>
+      <c r="C2" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -557,43 +560,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>0.03708125352859497</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H2" t="n">
-        <v>0.0835996150970459</v>
+        <v>0.03843370676040649</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1331167697906494</v>
+        <v>0.07778713703155518</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02292537689208984</v>
+        <v>0.1276915311813354</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01180754899978638</v>
+        <v>0.0219720721244812</v>
       </c>
       <c r="L2" t="n">
-        <v>17484800</v>
+        <v>0.01138453483581543</v>
       </c>
       <c r="M2" t="n">
-        <v>17484800</v>
+        <v>17642086.4</v>
       </c>
       <c r="N2" t="n">
-        <v>17484800</v>
+        <v>17642086.4</v>
       </c>
       <c r="O2" t="n">
-        <v>17484800</v>
+        <v>17642086.4</v>
       </c>
       <c r="P2" t="n">
-        <v>17484800</v>
+        <v>17695948.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>240</v>
+        <v>17695948.8</v>
       </c>
       <c r="R2" t="n">
         <v>240</v>
       </c>
       <c r="S2" t="n">
+        <v>240</v>
+      </c>
+      <c r="T2" t="n">
         <v>72</v>
       </c>
     </row>
@@ -604,16 +612,14 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>512</v>
+      </c>
+      <c r="C3" t="n">
         <v>15</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -624,43 +630,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>0.0501028299331665</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>0.1296690225601196</v>
+        <v>0.04889369010925293</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2066989898681641</v>
+        <v>0.1246041417121887</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02347965240478516</v>
+        <v>0.1917897462844849</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01205288171768188</v>
+        <v>0.02172024250030518</v>
       </c>
       <c r="L3" t="n">
-        <v>17567744</v>
+        <v>0.01106890439987183</v>
       </c>
       <c r="M3" t="n">
-        <v>17567744</v>
+        <v>17707008</v>
       </c>
       <c r="N3" t="n">
-        <v>17567744</v>
+        <v>17707008</v>
       </c>
       <c r="O3" t="n">
-        <v>17567744</v>
+        <v>17707008</v>
       </c>
       <c r="P3" t="n">
-        <v>17567744</v>
+        <v>17707008</v>
       </c>
       <c r="Q3" t="n">
-        <v>400</v>
+        <v>17707008</v>
       </c>
       <c r="R3" t="n">
         <v>400</v>
       </c>
       <c r="S3" t="n">
+        <v>400</v>
+      </c>
+      <c r="T3" t="n">
         <v>72</v>
       </c>
     </row>
@@ -671,16 +682,14 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>512</v>
+      </c>
+      <c r="C4" t="n">
         <v>15</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -691,43 +700,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>0.05098022222518921</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H4" t="n">
-        <v>0.09009617567062378</v>
+        <v>0.04843275547027588</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1677150964736938</v>
+        <v>0.08912398815155029</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0344711184501648</v>
+        <v>0.1384901881217956</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0121387243270874</v>
+        <v>0.03307449817657471</v>
       </c>
       <c r="L4" t="n">
-        <v>17567744</v>
+        <v>0.01128523349761963</v>
       </c>
       <c r="M4" t="n">
-        <v>17567744</v>
+        <v>17707008</v>
       </c>
       <c r="N4" t="n">
-        <v>17567744</v>
+        <v>17707008</v>
       </c>
       <c r="O4" t="n">
-        <v>17567744</v>
+        <v>17707008</v>
       </c>
       <c r="P4" t="n">
-        <v>17567744</v>
+        <v>17707008</v>
       </c>
       <c r="Q4" t="n">
-        <v>240</v>
+        <v>17707008</v>
       </c>
       <c r="R4" t="n">
         <v>240</v>
       </c>
       <c r="S4" t="n">
+        <v>240</v>
+      </c>
+      <c r="T4" t="n">
         <v>72</v>
       </c>
     </row>
@@ -738,16 +752,14 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>512</v>
+      </c>
+      <c r="C5" t="n">
         <v>20</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -758,43 +770,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>0.06204706430435181</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>0.1823030829429627</v>
+        <v>0.05980138778686524</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2869546413421631</v>
+        <v>0.2834598422050476</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02251172065734863</v>
+        <v>0.2574723124504089</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01177256107330322</v>
+        <v>0.02170732021331787</v>
       </c>
       <c r="L5" t="n">
-        <v>17567744</v>
+        <v>0.01117080450057983</v>
       </c>
       <c r="M5" t="n">
-        <v>17567744</v>
+        <v>17922867.2</v>
       </c>
       <c r="N5" t="n">
-        <v>17567744</v>
+        <v>17922867.2</v>
       </c>
       <c r="O5" t="n">
-        <v>17567744</v>
+        <v>17922867.2</v>
       </c>
       <c r="P5" t="n">
-        <v>17567744</v>
+        <v>17932902.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>560</v>
+        <v>17932902.4</v>
       </c>
       <c r="R5" t="n">
         <v>560</v>
       </c>
       <c r="S5" t="n">
+        <v>560</v>
+      </c>
+      <c r="T5" t="n">
         <v>72</v>
       </c>
     </row>
@@ -805,16 +822,14 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>512</v>
+      </c>
+      <c r="C6" t="n">
         <v>20</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -825,43 +840,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>0.06193088293075562</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H6" t="n">
-        <v>0.1408094525337219</v>
+        <v>0.05973777770996094</v>
       </c>
       <c r="I6" t="n">
-        <v>0.214637279510498</v>
+        <v>0.1332738280296326</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03530621528625488</v>
+        <v>0.2051356673240662</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01176537275314331</v>
+        <v>0.03337972164154053</v>
       </c>
       <c r="L6" t="n">
-        <v>17647616</v>
+        <v>0.01136900186538696</v>
       </c>
       <c r="M6" t="n">
-        <v>17647616</v>
+        <v>17936384</v>
       </c>
       <c r="N6" t="n">
-        <v>17660928</v>
+        <v>17936384</v>
       </c>
       <c r="O6" t="n">
-        <v>17660928</v>
+        <v>17936384</v>
       </c>
       <c r="P6" t="n">
-        <v>17660928</v>
+        <v>17936384</v>
       </c>
       <c r="Q6" t="n">
-        <v>400</v>
+        <v>17936384</v>
       </c>
       <c r="R6" t="n">
         <v>400</v>
       </c>
       <c r="S6" t="n">
+        <v>400</v>
+      </c>
+      <c r="T6" t="n">
         <v>72</v>
       </c>
     </row>
@@ -872,16 +892,14 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>512</v>
+      </c>
+      <c r="C7" t="n">
         <v>20</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>15</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -892,43 +910,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>0.06131898164749146</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H7" t="n">
-        <v>0.107347297668457</v>
+        <v>0.05891339778900147</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1580067396163941</v>
+        <v>0.09644192457199097</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04812906980514527</v>
+        <v>0.1410142779350281</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01175646781921387</v>
+        <v>0.04317764043807983</v>
       </c>
       <c r="L7" t="n">
-        <v>17833984</v>
+        <v>0.01136168241500854</v>
       </c>
       <c r="M7" t="n">
-        <v>17833984</v>
+        <v>17936384</v>
       </c>
       <c r="N7" t="n">
-        <v>17833984</v>
+        <v>17936384</v>
       </c>
       <c r="O7" t="n">
-        <v>17833984</v>
+        <v>17936384</v>
       </c>
       <c r="P7" t="n">
-        <v>17833984</v>
+        <v>17936384</v>
       </c>
       <c r="Q7" t="n">
-        <v>240</v>
+        <v>17936384</v>
       </c>
       <c r="R7" t="n">
         <v>240</v>
       </c>
       <c r="S7" t="n">
+        <v>240</v>
+      </c>
+      <c r="T7" t="n">
         <v>72</v>
       </c>
     </row>
@@ -939,16 +962,14 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>512</v>
+      </c>
+      <c r="C8" t="n">
         <v>25</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -959,43 +980,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>0.07580015659332276</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>0.2298044443130493</v>
+        <v>0.06906094551086425</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3835782766342163</v>
+        <v>0.2098036170005798</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02391266822814941</v>
+        <v>0.4456040263175964</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01243458986282349</v>
+        <v>0.02122924327850342</v>
       </c>
       <c r="L8" t="n">
-        <v>17946828.8</v>
+        <v>0.01097404956817627</v>
       </c>
       <c r="M8" t="n">
-        <v>17948262.4</v>
+        <v>17936384</v>
       </c>
       <c r="N8" t="n">
-        <v>17949286.4</v>
+        <v>17936384</v>
       </c>
       <c r="O8" t="n">
-        <v>17953587.2</v>
+        <v>17936384</v>
       </c>
       <c r="P8" t="n">
-        <v>17953587.2</v>
+        <v>17936384</v>
       </c>
       <c r="Q8" t="n">
-        <v>720</v>
+        <v>17936384</v>
       </c>
       <c r="R8" t="n">
         <v>720</v>
       </c>
       <c r="S8" t="n">
+        <v>720</v>
+      </c>
+      <c r="T8" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1006,16 +1032,14 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>512</v>
+      </c>
+      <c r="C9" t="n">
         <v>25</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -1026,43 +1050,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>0.07398484945297241</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>0.1857561469078064</v>
+        <v>0.07188271284103394</v>
       </c>
       <c r="I9" t="n">
-        <v>0.28661949634552</v>
+        <v>0.1785496830940247</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03487319946289062</v>
+        <v>0.269830048084259</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01145024299621582</v>
+        <v>0.03371825218200684</v>
       </c>
       <c r="L9" t="n">
-        <v>18005606.4</v>
+        <v>0.01147370338439941</v>
       </c>
       <c r="M9" t="n">
-        <v>18005606.4</v>
+        <v>18069504</v>
       </c>
       <c r="N9" t="n">
-        <v>18005606.4</v>
+        <v>18069504</v>
       </c>
       <c r="O9" t="n">
-        <v>18005606.4</v>
+        <v>18082816</v>
       </c>
       <c r="P9" t="n">
-        <v>18005606.4</v>
+        <v>18082816</v>
       </c>
       <c r="Q9" t="n">
-        <v>560</v>
+        <v>18082816</v>
       </c>
       <c r="R9" t="n">
         <v>560</v>
       </c>
       <c r="S9" t="n">
+        <v>560</v>
+      </c>
+      <c r="T9" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1073,16 +1102,14 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>512</v>
+      </c>
+      <c r="C10" t="n">
         <v>25</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>15</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -1093,43 +1120,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>0.1019685626029968</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H10" t="n">
-        <v>0.1505772829055786</v>
+        <v>0.06893893480300903</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2250005841255188</v>
+        <v>0.1418775796890259</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04642808437347412</v>
+        <v>0.2136366248130798</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01178537607192993</v>
+        <v>0.04287279844284057</v>
       </c>
       <c r="L10" t="n">
-        <v>18038784</v>
+        <v>0.01083822250366211</v>
       </c>
       <c r="M10" t="n">
-        <v>18038784</v>
+        <v>18202624</v>
       </c>
       <c r="N10" t="n">
-        <v>18038784</v>
+        <v>18202624</v>
       </c>
       <c r="O10" t="n">
-        <v>18038784</v>
+        <v>18202624</v>
       </c>
       <c r="P10" t="n">
-        <v>18038784</v>
+        <v>18202624</v>
       </c>
       <c r="Q10" t="n">
-        <v>400</v>
+        <v>18202624</v>
       </c>
       <c r="R10" t="n">
         <v>400</v>
       </c>
       <c r="S10" t="n">
+        <v>400</v>
+      </c>
+      <c r="T10" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1140,16 +1172,14 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>512</v>
+      </c>
+      <c r="C11" t="n">
         <v>25</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>20</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -1160,43 +1190,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>0.0765501618385315</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H11" t="n">
-        <v>0.1189457416534424</v>
+        <v>0.1827221512794495</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1670358300209046</v>
+        <v>0.1127809405326843</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05949966907501221</v>
+        <v>0.1622716307640076</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01185966730117798</v>
+        <v>0.05798566341400146</v>
       </c>
       <c r="L11" t="n">
-        <v>18038784</v>
+        <v>0.01163221597671509</v>
       </c>
       <c r="M11" t="n">
-        <v>18038784</v>
+        <v>18202624</v>
       </c>
       <c r="N11" t="n">
-        <v>18038784</v>
+        <v>18202624</v>
       </c>
       <c r="O11" t="n">
-        <v>18038784</v>
+        <v>18202624</v>
       </c>
       <c r="P11" t="n">
-        <v>18038784</v>
+        <v>18202624</v>
       </c>
       <c r="Q11" t="n">
-        <v>240</v>
+        <v>18202624</v>
       </c>
       <c r="R11" t="n">
         <v>240</v>
       </c>
       <c r="S11" t="n">
+        <v>240</v>
+      </c>
+      <c r="T11" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1207,16 +1242,14 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>512</v>
+      </c>
+      <c r="C12" t="n">
         <v>30</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>5</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -1227,43 +1260,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>0.09021730422973633</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>0.2851812839508057</v>
+        <v>0.07804808616638184</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4462615251541138</v>
+        <v>0.2534124135971069</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0245904803276062</v>
+        <v>0.384382426738739</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01277976036071777</v>
+        <v>0.02192209959030151</v>
       </c>
       <c r="L12" t="n">
-        <v>18038784</v>
+        <v>0.01123974323272705</v>
       </c>
       <c r="M12" t="n">
-        <v>18038784</v>
+        <v>18303590.4</v>
       </c>
       <c r="N12" t="n">
-        <v>18038784</v>
+        <v>18303590.4</v>
       </c>
       <c r="O12" t="n">
-        <v>18038784</v>
+        <v>18303590.4</v>
       </c>
       <c r="P12" t="n">
-        <v>18038784</v>
+        <v>18308710.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>880</v>
+        <v>18308710.4</v>
       </c>
       <c r="R12" t="n">
         <v>880</v>
       </c>
       <c r="S12" t="n">
+        <v>880</v>
+      </c>
+      <c r="T12" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1274,16 +1312,14 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>512</v>
+      </c>
+      <c r="C13" t="n">
         <v>30</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>10</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -1294,43 +1330,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>0.09099094867706299</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H13" t="n">
-        <v>0.2539182782173157</v>
+        <v>0.08228305578231812</v>
       </c>
       <c r="I13" t="n">
-        <v>0.413138747215271</v>
+        <v>0.3407127380371094</v>
       </c>
       <c r="J13" t="n">
-        <v>0.03738149404525757</v>
+        <v>0.3371027946472168</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01234042644500732</v>
+        <v>0.03351559638977051</v>
       </c>
       <c r="L13" t="n">
-        <v>18038784</v>
+        <v>0.01147420406341553</v>
       </c>
       <c r="M13" t="n">
-        <v>18038784</v>
+        <v>18309120</v>
       </c>
       <c r="N13" t="n">
-        <v>18038784</v>
+        <v>18309120</v>
       </c>
       <c r="O13" t="n">
-        <v>18038784</v>
+        <v>18309120</v>
       </c>
       <c r="P13" t="n">
-        <v>18038784</v>
+        <v>18309120</v>
       </c>
       <c r="Q13" t="n">
-        <v>720</v>
+        <v>18309120</v>
       </c>
       <c r="R13" t="n">
         <v>720</v>
       </c>
       <c r="S13" t="n">
+        <v>720</v>
+      </c>
+      <c r="T13" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1341,16 +1382,14 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>512</v>
+      </c>
+      <c r="C14" t="n">
         <v>30</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>15</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -1361,43 +1400,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>0.08686290979385376</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H14" t="n">
-        <v>0.2014338493347168</v>
+        <v>0.08407491445541382</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3005288243293762</v>
+        <v>0.1982311606407166</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04962769746780395</v>
+        <v>0.2911479830741882</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01241555213928223</v>
+        <v>0.04641460180282593</v>
       </c>
       <c r="L14" t="n">
-        <v>18038784</v>
+        <v>0.01163090467453003</v>
       </c>
       <c r="M14" t="n">
-        <v>18038784</v>
+        <v>18309120</v>
       </c>
       <c r="N14" t="n">
-        <v>18038784</v>
+        <v>18309120</v>
       </c>
       <c r="O14" t="n">
-        <v>18038784</v>
+        <v>18309120</v>
       </c>
       <c r="P14" t="n">
-        <v>18038784</v>
+        <v>18309120</v>
       </c>
       <c r="Q14" t="n">
-        <v>560</v>
+        <v>18309120</v>
       </c>
       <c r="R14" t="n">
         <v>560</v>
       </c>
       <c r="S14" t="n">
+        <v>560</v>
+      </c>
+      <c r="T14" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1408,16 +1452,14 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>512</v>
+      </c>
+      <c r="C15" t="n">
         <v>30</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>20</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -1428,43 +1470,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>0.1172281265258789</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H15" t="n">
-        <v>0.1683062076568604</v>
+        <v>0.08436211347579955</v>
       </c>
       <c r="I15" t="n">
-        <v>0.241305935382843</v>
+        <v>0.1609466433525086</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06026414632797241</v>
+        <v>0.2345278024673462</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01245737075805664</v>
+        <v>0.05677313804626465</v>
       </c>
       <c r="L15" t="n">
-        <v>18038784</v>
+        <v>0.01111074686050415</v>
       </c>
       <c r="M15" t="n">
-        <v>18038784</v>
+        <v>18309120</v>
       </c>
       <c r="N15" t="n">
-        <v>18038784</v>
+        <v>18309120</v>
       </c>
       <c r="O15" t="n">
-        <v>18038784</v>
+        <v>18309120</v>
       </c>
       <c r="P15" t="n">
-        <v>18038784</v>
+        <v>18309120</v>
       </c>
       <c r="Q15" t="n">
-        <v>400</v>
+        <v>18309120</v>
       </c>
       <c r="R15" t="n">
         <v>400</v>
       </c>
       <c r="S15" t="n">
+        <v>400</v>
+      </c>
+      <c r="T15" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1475,16 +1522,14 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>512</v>
+      </c>
+      <c r="C16" t="n">
         <v>30</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>25</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -1495,43 +1540,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>0.09079371690750122</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H16" t="n">
-        <v>0.1312659621238708</v>
+        <v>0.08373634815216065</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1894299626350403</v>
+        <v>0.1256174325942993</v>
       </c>
       <c r="J16" t="n">
-        <v>0.07625970840454102</v>
+        <v>0.2906008124351501</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01284216642379761</v>
+        <v>0.0684435486793518</v>
       </c>
       <c r="L16" t="n">
-        <v>18038784</v>
+        <v>0.01154712438583374</v>
       </c>
       <c r="M16" t="n">
-        <v>18038784</v>
+        <v>18309120</v>
       </c>
       <c r="N16" t="n">
-        <v>18038784</v>
+        <v>18309120</v>
       </c>
       <c r="O16" t="n">
-        <v>18038784</v>
+        <v>18309120</v>
       </c>
       <c r="P16" t="n">
-        <v>18038784</v>
+        <v>18309120</v>
       </c>
       <c r="Q16" t="n">
-        <v>240</v>
+        <v>18309120</v>
       </c>
       <c r="R16" t="n">
         <v>240</v>
       </c>
       <c r="S16" t="n">
+        <v>240</v>
+      </c>
+      <c r="T16" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1542,16 +1592,14 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>512</v>
+      </c>
+      <c r="C17" t="n">
         <v>10</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>5</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -1562,43 +1610,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>0.05230002403259278</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H17" t="n">
-        <v>0.1086444020271301</v>
+        <v>0.04750550985336303</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1773667812347412</v>
+        <v>0.1013029217720032</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03130497932434082</v>
+        <v>0.1675516366958618</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01680339574813843</v>
+        <v>0.02936322689056397</v>
       </c>
       <c r="L17" t="n">
-        <v>18265088</v>
+        <v>0.01544125080108643</v>
       </c>
       <c r="M17" t="n">
-        <v>18265088</v>
+        <v>18309120</v>
       </c>
       <c r="N17" t="n">
-        <v>18278400</v>
+        <v>18309120</v>
       </c>
       <c r="O17" t="n">
-        <v>18278400</v>
+        <v>18309120</v>
       </c>
       <c r="P17" t="n">
-        <v>18278400</v>
+        <v>18309120</v>
       </c>
       <c r="Q17" t="n">
-        <v>240</v>
+        <v>18309120</v>
       </c>
       <c r="R17" t="n">
         <v>240</v>
       </c>
       <c r="S17" t="n">
+        <v>240</v>
+      </c>
+      <c r="T17" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1609,16 +1662,14 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>512</v>
+      </c>
+      <c r="C18" t="n">
         <v>15</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>5</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -1629,43 +1680,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>0.09316576719284057</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H18" t="n">
-        <v>0.1733617305755615</v>
+        <v>0.06402025222778321</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2838318467140198</v>
+        <v>0.1664577007293701</v>
       </c>
       <c r="J18" t="n">
-        <v>0.03238540887832642</v>
+        <v>0.2632559180259705</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01682635545730591</v>
+        <v>0.0291019082069397</v>
       </c>
       <c r="L18" t="n">
-        <v>18325504</v>
+        <v>0.0149977445602417</v>
       </c>
       <c r="M18" t="n">
-        <v>18325504</v>
+        <v>18309120</v>
       </c>
       <c r="N18" t="n">
-        <v>18325504</v>
+        <v>18309120</v>
       </c>
       <c r="O18" t="n">
-        <v>18325504</v>
+        <v>18309120</v>
       </c>
       <c r="P18" t="n">
-        <v>18325504</v>
+        <v>18309120</v>
       </c>
       <c r="Q18" t="n">
-        <v>400</v>
+        <v>18309120</v>
       </c>
       <c r="R18" t="n">
         <v>400</v>
       </c>
       <c r="S18" t="n">
+        <v>400</v>
+      </c>
+      <c r="T18" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1676,16 +1732,14 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>512</v>
+      </c>
+      <c r="C19" t="n">
         <v>15</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>10</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -1696,43 +1750,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>0.06563197374343872</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H19" t="n">
-        <v>0.1206149578094482</v>
+        <v>0.0628244400024414</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1899056434631348</v>
+        <v>0.1146279096603394</v>
       </c>
       <c r="J19" t="n">
-        <v>0.04534704685211181</v>
+        <v>0.1805997610092163</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01538294553756714</v>
+        <v>0.04630136489868164</v>
       </c>
       <c r="L19" t="n">
-        <v>18714624</v>
+        <v>0.01526381969451904</v>
       </c>
       <c r="M19" t="n">
-        <v>18714624</v>
+        <v>18309120</v>
       </c>
       <c r="N19" t="n">
-        <v>18714624</v>
+        <v>18309120</v>
       </c>
       <c r="O19" t="n">
-        <v>18714624</v>
+        <v>18309120</v>
       </c>
       <c r="P19" t="n">
-        <v>18714624</v>
+        <v>18309120</v>
       </c>
       <c r="Q19" t="n">
-        <v>240</v>
+        <v>18309120</v>
       </c>
       <c r="R19" t="n">
         <v>240</v>
       </c>
       <c r="S19" t="n">
+        <v>240</v>
+      </c>
+      <c r="T19" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1743,16 +1802,14 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>512</v>
+      </c>
+      <c r="C20" t="n">
         <v>20</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>5</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -1763,43 +1820,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>0.0815778374671936</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H20" t="n">
-        <v>0.2386599540710449</v>
+        <v>0.0802883505821228</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3652477264404297</v>
+        <v>0.2272400617599487</v>
       </c>
       <c r="J20" t="n">
-        <v>0.03037753105163574</v>
+        <v>0.4659582614898682</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01534223556518555</v>
+        <v>0.02921469211578369</v>
       </c>
       <c r="L20" t="n">
-        <v>18714624</v>
+        <v>0.01525429487228394</v>
       </c>
       <c r="M20" t="n">
-        <v>18714624</v>
+        <v>18495488</v>
       </c>
       <c r="N20" t="n">
-        <v>18714624</v>
+        <v>18495488</v>
       </c>
       <c r="O20" t="n">
-        <v>18714624</v>
+        <v>18495488</v>
       </c>
       <c r="P20" t="n">
-        <v>18714624</v>
+        <v>18508800</v>
       </c>
       <c r="Q20" t="n">
-        <v>560</v>
+        <v>18508800</v>
       </c>
       <c r="R20" t="n">
         <v>560</v>
       </c>
       <c r="S20" t="n">
+        <v>560</v>
+      </c>
+      <c r="T20" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1810,16 +1872,14 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>512</v>
+      </c>
+      <c r="C21" t="n">
         <v>20</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>10</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -1830,43 +1890,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G21" t="n">
-        <v>0.08107197284698486</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H21" t="n">
-        <v>0.1896583914756775</v>
+        <v>0.0796473503112793</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2898860573768616</v>
+        <v>0.1774484395980835</v>
       </c>
       <c r="J21" t="n">
-        <v>0.07345622777938843</v>
+        <v>0.2767207860946655</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0159132719039917</v>
+        <v>0.04427907466888428</v>
       </c>
       <c r="L21" t="n">
-        <v>18714624</v>
+        <v>0.01537985801696777</v>
       </c>
       <c r="M21" t="n">
-        <v>18714624</v>
+        <v>18575360</v>
       </c>
       <c r="N21" t="n">
-        <v>18714624</v>
+        <v>18575360</v>
       </c>
       <c r="O21" t="n">
-        <v>18714624</v>
+        <v>18575360</v>
       </c>
       <c r="P21" t="n">
-        <v>18714624</v>
+        <v>18575360</v>
       </c>
       <c r="Q21" t="n">
-        <v>400</v>
+        <v>18575360</v>
       </c>
       <c r="R21" t="n">
         <v>400</v>
       </c>
       <c r="S21" t="n">
+        <v>400</v>
+      </c>
+      <c r="T21" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1877,16 +1942,14 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>512</v>
+      </c>
+      <c r="C22" t="n">
         <v>20</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>15</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -1897,43 +1960,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>0.08227540254592895</v>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H22" t="n">
-        <v>0.1402405261993408</v>
+        <v>0.08049702644348145</v>
       </c>
       <c r="I22" t="n">
-        <v>0.211520779132843</v>
+        <v>0.1366662621498108</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0650444507598877</v>
+        <v>0.2022963881492615</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0168933629989624</v>
+        <v>0.1752411007881164</v>
       </c>
       <c r="L22" t="n">
-        <v>18714624</v>
+        <v>0.01529920101165771</v>
       </c>
       <c r="M22" t="n">
-        <v>18714624</v>
+        <v>18575360</v>
       </c>
       <c r="N22" t="n">
-        <v>18714624</v>
+        <v>18575360</v>
       </c>
       <c r="O22" t="n">
-        <v>18714624</v>
+        <v>18575360</v>
       </c>
       <c r="P22" t="n">
-        <v>18714624</v>
+        <v>18575360</v>
       </c>
       <c r="Q22" t="n">
-        <v>240</v>
+        <v>18575360</v>
       </c>
       <c r="R22" t="n">
         <v>240</v>
       </c>
       <c r="S22" t="n">
+        <v>240</v>
+      </c>
+      <c r="T22" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1944,16 +2012,14 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>512</v>
+      </c>
+      <c r="C23" t="n">
         <v>25</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>5</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -1964,43 +2030,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G23" t="n">
-        <v>0.09951317310333252</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H23" t="n">
-        <v>0.3060453176498413</v>
+        <v>0.09176710844039918</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4977819442749024</v>
+        <v>0.2789873480796814</v>
       </c>
       <c r="J23" t="n">
-        <v>0.03084615468978882</v>
+        <v>0.4292686700820923</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01585086584091187</v>
+        <v>0.02910803556442261</v>
       </c>
       <c r="L23" t="n">
-        <v>18819481.6</v>
+        <v>0.01492873430252075</v>
       </c>
       <c r="M23" t="n">
-        <v>18819481.6</v>
+        <v>18575360</v>
       </c>
       <c r="N23" t="n">
-        <v>18832588.8</v>
+        <v>18575360</v>
       </c>
       <c r="O23" t="n">
-        <v>18832588.8</v>
+        <v>18575360</v>
       </c>
       <c r="P23" t="n">
-        <v>18832588.8</v>
+        <v>18575360</v>
       </c>
       <c r="Q23" t="n">
-        <v>720</v>
+        <v>18575360</v>
       </c>
       <c r="R23" t="n">
         <v>720</v>
       </c>
       <c r="S23" t="n">
+        <v>720</v>
+      </c>
+      <c r="T23" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2011,16 +2082,14 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>512</v>
+      </c>
+      <c r="C24" t="n">
         <v>25</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>10</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -2031,43 +2100,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>0.09817280769348144</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H24" t="n">
-        <v>0.2542278051376343</v>
+        <v>0.09468462467193603</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3821373581886292</v>
+        <v>0.2362520456314087</v>
       </c>
       <c r="J24" t="n">
-        <v>0.04717786312103271</v>
+        <v>0.4750320315361023</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01577317714691162</v>
+        <v>0.04593446254730225</v>
       </c>
       <c r="L24" t="n">
-        <v>18976768</v>
+        <v>0.01526943445205689</v>
       </c>
       <c r="M24" t="n">
-        <v>18976768</v>
+        <v>18575360</v>
       </c>
       <c r="N24" t="n">
-        <v>18976768</v>
+        <v>18575360</v>
       </c>
       <c r="O24" t="n">
-        <v>18976768</v>
+        <v>18575360</v>
       </c>
       <c r="P24" t="n">
-        <v>18976768</v>
+        <v>18575360</v>
       </c>
       <c r="Q24" t="n">
-        <v>560</v>
+        <v>18575360</v>
       </c>
       <c r="R24" t="n">
         <v>560</v>
       </c>
       <c r="S24" t="n">
+        <v>560</v>
+      </c>
+      <c r="T24" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2078,16 +2152,14 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>512</v>
+      </c>
+      <c r="C25" t="n">
         <v>25</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>15</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -2098,43 +2170,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>0.09990431070327759</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H25" t="n">
-        <v>0.2090099453926086</v>
+        <v>0.09810109138488769</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3433483242988586</v>
+        <v>0.1953103542327881</v>
       </c>
       <c r="J25" t="n">
-        <v>0.06257106065750122</v>
+        <v>0.2880868196487427</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01570020914077759</v>
+        <v>0.05882526636123657</v>
       </c>
       <c r="L25" t="n">
-        <v>18976768</v>
+        <v>0.01507326364517212</v>
       </c>
       <c r="M25" t="n">
-        <v>18976768</v>
+        <v>18575360</v>
       </c>
       <c r="N25" t="n">
-        <v>18976768</v>
+        <v>18575360</v>
       </c>
       <c r="O25" t="n">
-        <v>18976768</v>
+        <v>18575360</v>
       </c>
       <c r="P25" t="n">
-        <v>18976768</v>
+        <v>18575360</v>
       </c>
       <c r="Q25" t="n">
-        <v>400</v>
+        <v>18575360</v>
       </c>
       <c r="R25" t="n">
         <v>400</v>
       </c>
       <c r="S25" t="n">
+        <v>400</v>
+      </c>
+      <c r="T25" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2145,16 +2222,14 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>512</v>
+      </c>
+      <c r="C26" t="n">
         <v>25</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>20</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -2165,43 +2240,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G26" t="n">
-        <v>0.1031214475631714</v>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H26" t="n">
-        <v>0.1567266464233398</v>
+        <v>0.09373164176940918</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2309130191802979</v>
+        <v>0.1447779178619385</v>
       </c>
       <c r="J26" t="n">
-        <v>0.08407365083694458</v>
+        <v>0.2139834523200989</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01664953231811523</v>
+        <v>0.07587810754776</v>
       </c>
       <c r="L26" t="n">
-        <v>18976768</v>
+        <v>0.01478675603866577</v>
       </c>
       <c r="M26" t="n">
-        <v>18976768</v>
+        <v>18751078.4</v>
       </c>
       <c r="N26" t="n">
-        <v>18976768</v>
+        <v>18751078.4</v>
       </c>
       <c r="O26" t="n">
-        <v>18976768</v>
+        <v>18764595.2</v>
       </c>
       <c r="P26" t="n">
-        <v>18976768</v>
+        <v>18764595.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>240</v>
+        <v>18764595.2</v>
       </c>
       <c r="R26" t="n">
         <v>240</v>
       </c>
       <c r="S26" t="n">
+        <v>240</v>
+      </c>
+      <c r="T26" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2212,16 +2292,14 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>512</v>
+      </c>
+      <c r="C27" t="n">
         <v>30</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>5</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -2232,43 +2310,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G27" t="n">
-        <v>0.1173283338546753</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H27" t="n">
-        <v>0.3678060173988342</v>
+        <v>0.1120126724243164</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5963721990585327</v>
+        <v>0.3463621377944947</v>
       </c>
       <c r="J27" t="n">
-        <v>0.03137495517730713</v>
+        <v>0.6425854563713074</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01608449220657349</v>
+        <v>0.0290324330329895</v>
       </c>
       <c r="L27" t="n">
-        <v>18976768</v>
+        <v>0.01521039009094238</v>
       </c>
       <c r="M27" t="n">
-        <v>18976768</v>
+        <v>18889932.8</v>
       </c>
       <c r="N27" t="n">
-        <v>18976768</v>
+        <v>18889932.8</v>
       </c>
       <c r="O27" t="n">
-        <v>18976768</v>
+        <v>18892390.4</v>
       </c>
       <c r="P27" t="n">
-        <v>18976768</v>
+        <v>18892390.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>880</v>
+        <v>18892390.4</v>
       </c>
       <c r="R27" t="n">
         <v>880</v>
       </c>
       <c r="S27" t="n">
+        <v>880</v>
+      </c>
+      <c r="T27" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2279,16 +2362,14 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>512</v>
+      </c>
+      <c r="C28" t="n">
         <v>30</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>10</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -2299,43 +2380,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G28" t="n">
-        <v>0.1165035128593445</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H28" t="n">
-        <v>0.3171099305152893</v>
+        <v>0.1107413291931152</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4711655259132385</v>
+        <v>0.3001665472984314</v>
       </c>
       <c r="J28" t="n">
-        <v>0.04773179292678833</v>
+        <v>0.569097352027893</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01630868911743164</v>
+        <v>0.04483320713043213</v>
       </c>
       <c r="L28" t="n">
-        <v>18976768</v>
+        <v>0.01517013311386108</v>
       </c>
       <c r="M28" t="n">
-        <v>18976768</v>
+        <v>18894848</v>
       </c>
       <c r="N28" t="n">
-        <v>18976768</v>
+        <v>18894848</v>
       </c>
       <c r="O28" t="n">
-        <v>18976768</v>
+        <v>18894848</v>
       </c>
       <c r="P28" t="n">
-        <v>18976768</v>
+        <v>18894848</v>
       </c>
       <c r="Q28" t="n">
-        <v>720</v>
+        <v>18894848</v>
       </c>
       <c r="R28" t="n">
         <v>720</v>
       </c>
       <c r="S28" t="n">
+        <v>720</v>
+      </c>
+      <c r="T28" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2346,16 +2432,14 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>512</v>
+      </c>
+      <c r="C29" t="n">
         <v>30</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>15</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -2366,43 +2450,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G29" t="n">
-        <v>0.121005368232727</v>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H29" t="n">
-        <v>0.3065614461898803</v>
+        <v>0.1042793393135071</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4057466745376587</v>
+        <v>0.2506611466407776</v>
       </c>
       <c r="J29" t="n">
-        <v>0.06461993455886841</v>
+        <v>0.365768301486969</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01664572954177856</v>
+        <v>0.05797442197799683</v>
       </c>
       <c r="L29" t="n">
-        <v>18976768</v>
+        <v>0.01493977308273315</v>
       </c>
       <c r="M29" t="n">
-        <v>18976768</v>
+        <v>18894848</v>
       </c>
       <c r="N29" t="n">
-        <v>18976768</v>
+        <v>18894848</v>
       </c>
       <c r="O29" t="n">
-        <v>18976768</v>
+        <v>18894848</v>
       </c>
       <c r="P29" t="n">
-        <v>18976768</v>
+        <v>18894848</v>
       </c>
       <c r="Q29" t="n">
-        <v>560</v>
+        <v>18894848</v>
       </c>
       <c r="R29" t="n">
         <v>560</v>
       </c>
       <c r="S29" t="n">
+        <v>560</v>
+      </c>
+      <c r="T29" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2413,16 +2502,14 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>512</v>
+      </c>
+      <c r="C30" t="n">
         <v>30</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>20</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -2433,43 +2520,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G30" t="n">
-        <v>0.1159293413162232</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H30" t="n">
-        <v>0.2184260845184326</v>
+        <v>0.107273280620575</v>
       </c>
       <c r="I30" t="n">
-        <v>0.3265002131462097</v>
+        <v>0.2079070925712586</v>
       </c>
       <c r="J30" t="n">
-        <v>0.08081648349761963</v>
+        <v>0.301986038684845</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01626687049865723</v>
+        <v>0.1964598536491394</v>
       </c>
       <c r="L30" t="n">
-        <v>18976768</v>
+        <v>0.01495448350906372</v>
       </c>
       <c r="M30" t="n">
-        <v>18976768</v>
+        <v>18894848</v>
       </c>
       <c r="N30" t="n">
-        <v>18976768</v>
+        <v>18894848</v>
       </c>
       <c r="O30" t="n">
-        <v>18976768</v>
+        <v>18894848</v>
       </c>
       <c r="P30" t="n">
-        <v>18976768</v>
+        <v>18894848</v>
       </c>
       <c r="Q30" t="n">
-        <v>400</v>
+        <v>18894848</v>
       </c>
       <c r="R30" t="n">
         <v>400</v>
       </c>
       <c r="S30" t="n">
+        <v>400</v>
+      </c>
+      <c r="T30" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2480,16 +2572,14 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>512</v>
+      </c>
+      <c r="C31" t="n">
         <v>30</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>25</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -2500,43 +2590,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G31" t="n">
-        <v>0.1199913024902344</v>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H31" t="n">
-        <v>0.1762044310569763</v>
+        <v>0.1119967579841614</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2758787035942077</v>
+        <v>0.1639264225959778</v>
       </c>
       <c r="J31" t="n">
-        <v>0.09835656881332397</v>
+        <v>0.2231652021408081</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01662354469299316</v>
+        <v>0.09258967638015747</v>
       </c>
       <c r="L31" t="n">
-        <v>18976768</v>
+        <v>0.01612627506256104</v>
       </c>
       <c r="M31" t="n">
-        <v>18976768</v>
+        <v>18894848</v>
       </c>
       <c r="N31" t="n">
-        <v>18976768</v>
+        <v>18894848</v>
       </c>
       <c r="O31" t="n">
-        <v>18976768</v>
+        <v>18894848</v>
       </c>
       <c r="P31" t="n">
-        <v>18976768</v>
+        <v>18894848</v>
       </c>
       <c r="Q31" t="n">
-        <v>240</v>
+        <v>18894848</v>
       </c>
       <c r="R31" t="n">
         <v>240</v>
       </c>
       <c r="S31" t="n">
+        <v>240</v>
+      </c>
+      <c r="T31" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2547,16 +2642,14 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>512</v>
+      </c>
+      <c r="C32" t="n">
         <v>10</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>5</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -2567,43 +2660,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G32" t="n">
-        <v>0.06939495801925659</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H32" t="n">
-        <v>0.1397969484329224</v>
+        <v>0.05524626970291138</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2339734554290772</v>
+        <v>0.1216400861740112</v>
       </c>
       <c r="J32" t="n">
-        <v>0.03910700082778931</v>
+        <v>0.195234489440918</v>
       </c>
       <c r="K32" t="n">
-        <v>0.021074378490448</v>
+        <v>0.03472989797592163</v>
       </c>
       <c r="L32" t="n">
-        <v>19111936</v>
+        <v>0.01838740110397339</v>
       </c>
       <c r="M32" t="n">
-        <v>19111936</v>
+        <v>18894848</v>
       </c>
       <c r="N32" t="n">
-        <v>19125452.8</v>
+        <v>18894848</v>
       </c>
       <c r="O32" t="n">
-        <v>19125452.8</v>
+        <v>18894848</v>
       </c>
       <c r="P32" t="n">
-        <v>19125452.8</v>
+        <v>18894848</v>
       </c>
       <c r="Q32" t="n">
-        <v>240</v>
+        <v>18894848</v>
       </c>
       <c r="R32" t="n">
         <v>240</v>
       </c>
       <c r="S32" t="n">
+        <v>240</v>
+      </c>
+      <c r="T32" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2614,16 +2712,14 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>512</v>
+      </c>
+      <c r="C33" t="n">
         <v>15</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>5</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -2634,43 +2730,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G33" t="n">
-        <v>0.08838510513305664</v>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H33" t="n">
-        <v>0.2188377618789673</v>
+        <v>0.08143359422683716</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3785171747207642</v>
+        <v>0.3344353914260864</v>
       </c>
       <c r="J33" t="n">
-        <v>0.04109125137329102</v>
+        <v>0.3310961723327637</v>
       </c>
       <c r="K33" t="n">
-        <v>0.02034441232681274</v>
+        <v>0.03773844242095947</v>
       </c>
       <c r="L33" t="n">
-        <v>19247104</v>
+        <v>0.01944884061813355</v>
       </c>
       <c r="M33" t="n">
-        <v>19247104</v>
+        <v>18894848</v>
       </c>
       <c r="N33" t="n">
-        <v>19247104</v>
+        <v>18894848</v>
       </c>
       <c r="O33" t="n">
-        <v>19247104</v>
+        <v>18894848</v>
       </c>
       <c r="P33" t="n">
-        <v>19247104</v>
+        <v>18894848</v>
       </c>
       <c r="Q33" t="n">
-        <v>400</v>
+        <v>18894848</v>
       </c>
       <c r="R33" t="n">
         <v>400</v>
       </c>
       <c r="S33" t="n">
+        <v>400</v>
+      </c>
+      <c r="T33" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2681,16 +2782,14 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>512</v>
+      </c>
+      <c r="C34" t="n">
         <v>15</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>10</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -2701,43 +2800,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G34" t="n">
-        <v>0.08589555025100708</v>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H34" t="n">
-        <v>0.1613080978393555</v>
+        <v>0.08032242059707642</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2492318630218506</v>
+        <v>0.1519839644432068</v>
       </c>
       <c r="J34" t="n">
-        <v>0.06101036071777344</v>
+        <v>0.2378932952880859</v>
       </c>
       <c r="K34" t="n">
-        <v>0.02046438455581665</v>
+        <v>0.05729701519012451</v>
       </c>
       <c r="L34" t="n">
-        <v>19247104</v>
+        <v>0.01943364143371582</v>
       </c>
       <c r="M34" t="n">
-        <v>19247104</v>
+        <v>18894848</v>
       </c>
       <c r="N34" t="n">
-        <v>19247104</v>
+        <v>18894848</v>
       </c>
       <c r="O34" t="n">
-        <v>19247104</v>
+        <v>18894848</v>
       </c>
       <c r="P34" t="n">
-        <v>19247104</v>
+        <v>18894848</v>
       </c>
       <c r="Q34" t="n">
-        <v>240</v>
+        <v>18894848</v>
       </c>
       <c r="R34" t="n">
         <v>240</v>
       </c>
       <c r="S34" t="n">
+        <v>240</v>
+      </c>
+      <c r="T34" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2748,16 +2852,14 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>512</v>
+      </c>
+      <c r="C35" t="n">
         <v>20</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>5</v>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -2768,43 +2870,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G35" t="n">
-        <v>0.1104556083679199</v>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H35" t="n">
-        <v>0.308485746383667</v>
+        <v>0.09645029306411743</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4978214263916015</v>
+        <v>0.2791989326477051</v>
       </c>
       <c r="J35" t="n">
-        <v>0.039376699924469</v>
+        <v>0.548889696598053</v>
       </c>
       <c r="K35" t="n">
-        <v>0.02128888368606567</v>
+        <v>0.03767149448394776</v>
       </c>
       <c r="L35" t="n">
-        <v>19247104</v>
+        <v>0.01820341348648071</v>
       </c>
       <c r="M35" t="n">
-        <v>19247104</v>
+        <v>18894848</v>
       </c>
       <c r="N35" t="n">
-        <v>19247104</v>
+        <v>18894848</v>
       </c>
       <c r="O35" t="n">
-        <v>19247104</v>
+        <v>18894848</v>
       </c>
       <c r="P35" t="n">
-        <v>19247104</v>
+        <v>18894848</v>
       </c>
       <c r="Q35" t="n">
-        <v>560</v>
+        <v>18894848</v>
       </c>
       <c r="R35" t="n">
         <v>560</v>
       </c>
       <c r="S35" t="n">
+        <v>560</v>
+      </c>
+      <c r="T35" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2815,16 +2922,14 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>512</v>
+      </c>
+      <c r="C36" t="n">
         <v>20</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>10</v>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -2835,43 +2940,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G36" t="n">
-        <v>0.1083096146583557</v>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H36" t="n">
-        <v>0.2458306789398193</v>
+        <v>0.09448113441467285</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3668108463287353</v>
+        <v>0.2177214741706848</v>
       </c>
       <c r="J36" t="n">
-        <v>0.05967731475830078</v>
+        <v>0.3389404773712158</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0205285906791687</v>
+        <v>0.05314732789993286</v>
       </c>
       <c r="L36" t="n">
-        <v>19247104</v>
+        <v>0.01786767244338989</v>
       </c>
       <c r="M36" t="n">
-        <v>19247104</v>
+        <v>19151667.2</v>
       </c>
       <c r="N36" t="n">
-        <v>19247104</v>
+        <v>19151667.2</v>
       </c>
       <c r="O36" t="n">
-        <v>19247104</v>
+        <v>19165184</v>
       </c>
       <c r="P36" t="n">
-        <v>19247104</v>
+        <v>19165184</v>
       </c>
       <c r="Q36" t="n">
-        <v>400</v>
+        <v>19165184</v>
       </c>
       <c r="R36" t="n">
         <v>400</v>
       </c>
       <c r="S36" t="n">
+        <v>400</v>
+      </c>
+      <c r="T36" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2882,16 +2992,14 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>512</v>
+      </c>
+      <c r="C37" t="n">
         <v>20</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>15</v>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -2902,43 +3010,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G37" t="n">
-        <v>0.1036171793937683</v>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H37" t="n">
-        <v>0.1768592000007629</v>
+        <v>0.09472720623016358</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2607095360755921</v>
+        <v>0.1643937826156616</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1095443964004517</v>
+        <v>0.2398245334625244</v>
       </c>
       <c r="K37" t="n">
-        <v>0.02076263427734375</v>
+        <v>0.07324868440628052</v>
       </c>
       <c r="L37" t="n">
-        <v>19247104</v>
+        <v>0.01890494823455811</v>
       </c>
       <c r="M37" t="n">
-        <v>19247104</v>
+        <v>19165184</v>
       </c>
       <c r="N37" t="n">
-        <v>19247104</v>
+        <v>19165184</v>
       </c>
       <c r="O37" t="n">
-        <v>19247104</v>
+        <v>19165184</v>
       </c>
       <c r="P37" t="n">
-        <v>19247104</v>
+        <v>19165184</v>
       </c>
       <c r="Q37" t="n">
-        <v>240</v>
+        <v>19165184</v>
       </c>
       <c r="R37" t="n">
         <v>240</v>
       </c>
       <c r="S37" t="n">
+        <v>240</v>
+      </c>
+      <c r="T37" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2949,16 +3062,14 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>512</v>
+      </c>
+      <c r="C38" t="n">
         <v>25</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>5</v>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -2969,43 +3080,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G38" t="n">
-        <v>0.1240455985069275</v>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H38" t="n">
-        <v>0.3771872520446777</v>
+        <v>0.1134201407432556</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5975601673126221</v>
+        <v>0.3498188376426697</v>
       </c>
       <c r="J38" t="n">
-        <v>0.03802025318145752</v>
+        <v>0.647968339920044</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01914467811584473</v>
+        <v>0.03538309335708618</v>
       </c>
       <c r="L38" t="n">
-        <v>19247104</v>
+        <v>0.01763348579406738</v>
       </c>
       <c r="M38" t="n">
-        <v>19247104</v>
+        <v>19165184</v>
       </c>
       <c r="N38" t="n">
-        <v>19247104</v>
+        <v>19165184</v>
       </c>
       <c r="O38" t="n">
-        <v>19247104</v>
+        <v>19165184</v>
       </c>
       <c r="P38" t="n">
-        <v>19247104</v>
+        <v>19165184</v>
       </c>
       <c r="Q38" t="n">
-        <v>720</v>
+        <v>19165184</v>
       </c>
       <c r="R38" t="n">
         <v>720</v>
       </c>
       <c r="S38" t="n">
+        <v>720</v>
+      </c>
+      <c r="T38" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3016,16 +3132,14 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>512</v>
+      </c>
+      <c r="C39" t="n">
         <v>25</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>10</v>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -3036,43 +3150,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G39" t="n">
-        <v>0.1511296272277832</v>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H39" t="n">
-        <v>0.3225156307220459</v>
+        <v>0.112382698059082</v>
       </c>
       <c r="I39" t="n">
-        <v>0.4921860098838806</v>
+        <v>0.3025379300117493</v>
       </c>
       <c r="J39" t="n">
-        <v>0.05885180234909058</v>
+        <v>0.5652616620063782</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0207180380821228</v>
+        <v>0.05526176691055298</v>
       </c>
       <c r="L39" t="n">
-        <v>19247104</v>
+        <v>0.01826918125152588</v>
       </c>
       <c r="M39" t="n">
-        <v>19247104</v>
+        <v>19165184</v>
       </c>
       <c r="N39" t="n">
-        <v>19247104</v>
+        <v>19165184</v>
       </c>
       <c r="O39" t="n">
-        <v>19247104</v>
+        <v>19165184</v>
       </c>
       <c r="P39" t="n">
-        <v>19247104</v>
+        <v>19165184</v>
       </c>
       <c r="Q39" t="n">
-        <v>560</v>
+        <v>19165184</v>
       </c>
       <c r="R39" t="n">
         <v>560</v>
       </c>
       <c r="S39" t="n">
+        <v>560</v>
+      </c>
+      <c r="T39" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3083,16 +3202,14 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>512</v>
+      </c>
+      <c r="C40" t="n">
         <v>25</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>15</v>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -3103,43 +3220,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G40" t="n">
-        <v>0.12857825756073</v>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H40" t="n">
-        <v>0.265840494632721</v>
+        <v>0.1130724430084229</v>
       </c>
       <c r="I40" t="n">
-        <v>0.390539801120758</v>
+        <v>0.2396764516830444</v>
       </c>
       <c r="J40" t="n">
-        <v>0.08123501539230346</v>
+        <v>0.3543791174888611</v>
       </c>
       <c r="K40" t="n">
-        <v>0.02042714357376098</v>
+        <v>0.06991090774536132</v>
       </c>
       <c r="L40" t="n">
-        <v>19395788.8</v>
+        <v>0.01775225400924683</v>
       </c>
       <c r="M40" t="n">
-        <v>19395788.8</v>
+        <v>19165184</v>
       </c>
       <c r="N40" t="n">
-        <v>19395788.8</v>
+        <v>19165184</v>
       </c>
       <c r="O40" t="n">
-        <v>19409305.6</v>
+        <v>19165184</v>
       </c>
       <c r="P40" t="n">
-        <v>19409305.6</v>
+        <v>19165184</v>
       </c>
       <c r="Q40" t="n">
-        <v>400</v>
+        <v>19165184</v>
       </c>
       <c r="R40" t="n">
         <v>400</v>
       </c>
       <c r="S40" t="n">
+        <v>400</v>
+      </c>
+      <c r="T40" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3150,16 +3272,14 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>512</v>
+      </c>
+      <c r="C41" t="n">
         <v>25</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>20</v>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -3170,43 +3290,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G41" t="n">
-        <v>0.1254115581512451</v>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H41" t="n">
-        <v>0.2235549688339233</v>
+        <v>0.1175705432891846</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2856992721557617</v>
+        <v>0.2988369822502136</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1022548913955688</v>
+        <v>0.2645367741584778</v>
       </c>
       <c r="K41" t="n">
-        <v>0.01962682008743286</v>
+        <v>0.09073582887649537</v>
       </c>
       <c r="L41" t="n">
-        <v>19517440</v>
+        <v>0.01835592985153198</v>
       </c>
       <c r="M41" t="n">
-        <v>19517440</v>
+        <v>19165184</v>
       </c>
       <c r="N41" t="n">
-        <v>19517440</v>
+        <v>19165184</v>
       </c>
       <c r="O41" t="n">
-        <v>19517440</v>
+        <v>19165184</v>
       </c>
       <c r="P41" t="n">
-        <v>19517440</v>
+        <v>19165184</v>
       </c>
       <c r="Q41" t="n">
-        <v>240</v>
+        <v>19165184</v>
       </c>
       <c r="R41" t="n">
         <v>240</v>
       </c>
       <c r="S41" t="n">
+        <v>240</v>
+      </c>
+      <c r="T41" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3217,16 +3342,14 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>512</v>
+      </c>
+      <c r="C42" t="n">
         <v>30</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>5</v>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -3237,43 +3360,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G42" t="n">
-        <v>0.1490127801895142</v>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H42" t="n">
-        <v>0.4899105191230774</v>
+        <v>0.1322320461273193</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7610144972801208</v>
+        <v>0.4205082416534424</v>
       </c>
       <c r="J42" t="n">
-        <v>0.04008266925811767</v>
+        <v>0.6393260836601258</v>
       </c>
       <c r="K42" t="n">
-        <v>0.02005623579025268</v>
+        <v>0.03620228767395019</v>
       </c>
       <c r="L42" t="n">
-        <v>19517440</v>
+        <v>0.01836739778518677</v>
       </c>
       <c r="M42" t="n">
-        <v>19517440</v>
+        <v>19165184</v>
       </c>
       <c r="N42" t="n">
-        <v>19517440</v>
+        <v>19165184</v>
       </c>
       <c r="O42" t="n">
-        <v>19517440</v>
+        <v>19165184</v>
       </c>
       <c r="P42" t="n">
-        <v>19517440</v>
+        <v>19165184</v>
       </c>
       <c r="Q42" t="n">
-        <v>880</v>
+        <v>19165184</v>
       </c>
       <c r="R42" t="n">
         <v>880</v>
       </c>
       <c r="S42" t="n">
+        <v>880</v>
+      </c>
+      <c r="T42" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3284,16 +3412,14 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>512</v>
+      </c>
+      <c r="C43" t="n">
         <v>30</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>10</v>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -3304,43 +3430,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G43" t="n">
-        <v>0.1387800693511963</v>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H43" t="n">
-        <v>0.3934574127197266</v>
+        <v>0.1340587258338928</v>
       </c>
       <c r="I43" t="n">
-        <v>0.6216627717018127</v>
+        <v>0.4804955005645752</v>
       </c>
       <c r="J43" t="n">
-        <v>0.05766021013259888</v>
+        <v>0.5522735834121704</v>
       </c>
       <c r="K43" t="n">
-        <v>0.01950993537902832</v>
+        <v>0.05354324579238891</v>
       </c>
       <c r="L43" t="n">
-        <v>19517440</v>
+        <v>0.01844397783279419</v>
       </c>
       <c r="M43" t="n">
-        <v>19517440</v>
+        <v>19165184</v>
       </c>
       <c r="N43" t="n">
-        <v>19517440</v>
+        <v>19165184</v>
       </c>
       <c r="O43" t="n">
-        <v>19517440</v>
+        <v>19165184</v>
       </c>
       <c r="P43" t="n">
-        <v>19517440</v>
+        <v>19165184</v>
       </c>
       <c r="Q43" t="n">
-        <v>720</v>
+        <v>19165184</v>
       </c>
       <c r="R43" t="n">
         <v>720</v>
       </c>
       <c r="S43" t="n">
+        <v>720</v>
+      </c>
+      <c r="T43" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3351,16 +3482,14 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>512</v>
+      </c>
+      <c r="C44" t="n">
         <v>30</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>15</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -3371,43 +3500,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G44" t="n">
-        <v>0.1434461832046509</v>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H44" t="n">
-        <v>0.3275190114974976</v>
+        <v>0.1353305697441101</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4880638360977173</v>
+        <v>0.4347078204154968</v>
       </c>
       <c r="J44" t="n">
-        <v>0.07465060949325561</v>
+        <v>0.4711057305335998</v>
       </c>
       <c r="K44" t="n">
-        <v>0.01918714046478271</v>
+        <v>0.07403538227081299</v>
       </c>
       <c r="L44" t="n">
-        <v>19517440</v>
+        <v>0.01828619241714478</v>
       </c>
       <c r="M44" t="n">
-        <v>19517440</v>
+        <v>19165184</v>
       </c>
       <c r="N44" t="n">
-        <v>19517440</v>
+        <v>19165184</v>
       </c>
       <c r="O44" t="n">
-        <v>19517440</v>
+        <v>19165184</v>
       </c>
       <c r="P44" t="n">
-        <v>19517440</v>
+        <v>19165184</v>
       </c>
       <c r="Q44" t="n">
-        <v>560</v>
+        <v>19165184</v>
       </c>
       <c r="R44" t="n">
         <v>560</v>
       </c>
       <c r="S44" t="n">
+        <v>560</v>
+      </c>
+      <c r="T44" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3418,16 +3552,14 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>512</v>
+      </c>
+      <c r="C45" t="n">
         <v>30</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>20</v>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -3438,43 +3570,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G45" t="n">
-        <v>0.14800044298172</v>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H45" t="n">
-        <v>0.3014454007148742</v>
+        <v>0.1346588850021362</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3990458488464356</v>
+        <v>0.2549779295921326</v>
       </c>
       <c r="J45" t="n">
-        <v>0.09738308191299438</v>
+        <v>0.371994161605835</v>
       </c>
       <c r="K45" t="n">
-        <v>0.01923197507858276</v>
+        <v>0.09070739746093751</v>
       </c>
       <c r="L45" t="n">
-        <v>19517440</v>
+        <v>0.0178697943687439</v>
       </c>
       <c r="M45" t="n">
-        <v>19517440</v>
+        <v>19300352</v>
       </c>
       <c r="N45" t="n">
-        <v>19517440</v>
+        <v>19300352</v>
       </c>
       <c r="O45" t="n">
-        <v>19517440</v>
+        <v>19300352</v>
       </c>
       <c r="P45" t="n">
-        <v>19517440</v>
+        <v>19313868.8</v>
       </c>
       <c r="Q45" t="n">
-        <v>400</v>
+        <v>19313868.8</v>
       </c>
       <c r="R45" t="n">
         <v>400</v>
       </c>
       <c r="S45" t="n">
+        <v>400</v>
+      </c>
+      <c r="T45" t="n">
         <v>72</v>
       </c>
     </row>
@@ -3485,16 +3622,14 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>512</v>
+      </c>
+      <c r="C46" t="n">
         <v>30</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>25</v>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -3505,63 +3640,66 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G46" t="n">
-        <v>0.1450551033020019</v>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H46" t="n">
-        <v>0.2153236508369446</v>
+        <v>0.1313660740852356</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3046613812446594</v>
+        <v>0.1930197954177856</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1223689436912537</v>
+        <v>0.2761362314224243</v>
       </c>
       <c r="K46" t="n">
-        <v>0.02049597501754761</v>
+        <v>0.2252213716506958</v>
       </c>
       <c r="L46" t="n">
-        <v>19517440</v>
+        <v>0.01795419454574585</v>
       </c>
       <c r="M46" t="n">
-        <v>19517440</v>
+        <v>19435520</v>
       </c>
       <c r="N46" t="n">
-        <v>19517440</v>
+        <v>19435520</v>
       </c>
       <c r="O46" t="n">
-        <v>19517440</v>
+        <v>19435520</v>
       </c>
       <c r="P46" t="n">
-        <v>19517440</v>
+        <v>19435520</v>
       </c>
       <c r="Q46" t="n">
-        <v>240</v>
+        <v>19435520</v>
       </c>
       <c r="R46" t="n">
         <v>240</v>
       </c>
       <c r="S46" t="n">
+        <v>240</v>
+      </c>
+      <c r="T46" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>('SS512', 512)</t>
+          <t>SS512</t>
         </is>
       </c>
       <c r="B47" t="n">
+        <v>512</v>
+      </c>
+      <c r="C47" t="n">
         <v>10</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>5</v>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -3572,63 +3710,66 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G47" t="n">
-        <v>0.01548228263854981</v>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H47" t="n">
-        <v>0.02672159671783447</v>
+        <v>0.01458830833435059</v>
       </c>
       <c r="I47" t="n">
-        <v>0.04410717487335205</v>
+        <v>0.02530229091644287</v>
       </c>
       <c r="J47" t="n">
-        <v>0.009464597702026368</v>
+        <v>0.04129742383956909</v>
       </c>
       <c r="K47" t="n">
-        <v>0.003741562366485596</v>
+        <v>0.008697235584259033</v>
       </c>
       <c r="L47" t="n">
-        <v>19692544</v>
+        <v>0.003468215465545654</v>
       </c>
       <c r="M47" t="n">
-        <v>19692544</v>
+        <v>19519488</v>
       </c>
       <c r="N47" t="n">
-        <v>19698688</v>
+        <v>19519488</v>
       </c>
       <c r="O47" t="n">
-        <v>19725721.6</v>
+        <v>19520921.6</v>
       </c>
       <c r="P47" t="n">
-        <v>19725721.6</v>
+        <v>19526656</v>
       </c>
       <c r="Q47" t="n">
-        <v>240</v>
+        <v>19526656</v>
       </c>
       <c r="R47" t="n">
         <v>240</v>
       </c>
       <c r="S47" t="n">
+        <v>240</v>
+      </c>
+      <c r="T47" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>('SS512', 512)</t>
+          <t>SS512</t>
         </is>
       </c>
       <c r="B48" t="n">
+        <v>512</v>
+      </c>
+      <c r="C48" t="n">
         <v>15</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>5</v>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -3639,63 +3780,66 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G48" t="n">
-        <v>0.01897156238555908</v>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H48" t="n">
-        <v>0.04241315126419067</v>
+        <v>0.0184423565864563</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0668068766593933</v>
+        <v>0.04057939052581787</v>
       </c>
       <c r="J48" t="n">
-        <v>0.008950948715209961</v>
+        <v>0.06432881355285644</v>
       </c>
       <c r="K48" t="n">
-        <v>0.02928094863891601</v>
+        <v>0.008879709243774413</v>
       </c>
       <c r="L48" t="n">
-        <v>19761971.2</v>
+        <v>0.003509306907653809</v>
       </c>
       <c r="M48" t="n">
-        <v>19759104</v>
+        <v>19594035.2</v>
       </c>
       <c r="N48" t="n">
-        <v>19773849.6</v>
+        <v>19593830.4</v>
       </c>
       <c r="O48" t="n">
-        <v>19820544</v>
+        <v>19620249.6</v>
       </c>
       <c r="P48" t="n">
-        <v>19820544</v>
+        <v>19620249.6</v>
       </c>
       <c r="Q48" t="n">
-        <v>400</v>
+        <v>19620249.6</v>
       </c>
       <c r="R48" t="n">
         <v>400</v>
       </c>
       <c r="S48" t="n">
+        <v>400</v>
+      </c>
+      <c r="T48" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>('SS512', 512)</t>
+          <t>SS512</t>
         </is>
       </c>
       <c r="B49" t="n">
+        <v>512</v>
+      </c>
+      <c r="C49" t="n">
         <v>15</v>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>10</v>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -3706,63 +3850,66 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G49" t="n">
-        <v>0.01963448524475098</v>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H49" t="n">
-        <v>0.03111628293991089</v>
+        <v>0.01790155172348023</v>
       </c>
       <c r="I49" t="n">
-        <v>0.04895111322402954</v>
+        <v>0.02895606756210327</v>
       </c>
       <c r="J49" t="n">
-        <v>0.01318881511688232</v>
+        <v>0.04484180212020874</v>
       </c>
       <c r="K49" t="n">
-        <v>0.003665792942047119</v>
+        <v>0.01181007623672485</v>
       </c>
       <c r="L49" t="n">
-        <v>19729817.6</v>
+        <v>0.003339958190917969</v>
       </c>
       <c r="M49" t="n">
-        <v>19739238.4</v>
+        <v>19565568</v>
       </c>
       <c r="N49" t="n">
-        <v>19739852.8</v>
+        <v>19564748.8</v>
       </c>
       <c r="O49" t="n">
-        <v>19743334.4</v>
+        <v>19573964.8</v>
       </c>
       <c r="P49" t="n">
-        <v>19743334.4</v>
+        <v>19582771.2</v>
       </c>
       <c r="Q49" t="n">
-        <v>240</v>
+        <v>19582771.2</v>
       </c>
       <c r="R49" t="n">
         <v>240</v>
       </c>
       <c r="S49" t="n">
+        <v>240</v>
+      </c>
+      <c r="T49" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>('SS512', 512)</t>
+          <t>SS512</t>
         </is>
       </c>
       <c r="B50" t="n">
+        <v>512</v>
+      </c>
+      <c r="C50" t="n">
         <v>20</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>5</v>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -3773,63 +3920,66 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G50" t="n">
-        <v>0.02381938695907593</v>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H50" t="n">
-        <v>0.05928363800048828</v>
+        <v>0.02158297300338745</v>
       </c>
       <c r="I50" t="n">
-        <v>0.09063293933868408</v>
+        <v>0.05410577058792114</v>
       </c>
       <c r="J50" t="n">
-        <v>0.009242987632751465</v>
+        <v>0.0841941237449646</v>
       </c>
       <c r="K50" t="n">
-        <v>0.003704452514648438</v>
+        <v>0.008544659614562989</v>
       </c>
       <c r="L50" t="n">
-        <v>19818291.2</v>
+        <v>0.003401458263397217</v>
       </c>
       <c r="M50" t="n">
-        <v>19814400</v>
+        <v>19750092.8</v>
       </c>
       <c r="N50" t="n">
-        <v>19810713.6</v>
+        <v>19750092.8</v>
       </c>
       <c r="O50" t="n">
-        <v>19849830.4</v>
+        <v>19769344</v>
       </c>
       <c r="P50" t="n">
-        <v>19850035.2</v>
+        <v>19805593.6</v>
       </c>
       <c r="Q50" t="n">
-        <v>560</v>
+        <v>19805798.4</v>
       </c>
       <c r="R50" t="n">
         <v>560</v>
       </c>
       <c r="S50" t="n">
+        <v>560</v>
+      </c>
+      <c r="T50" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>('SS512', 512)</t>
+          <t>SS512</t>
         </is>
       </c>
       <c r="B51" t="n">
+        <v>512</v>
+      </c>
+      <c r="C51" t="n">
         <v>20</v>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>10</v>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -3840,63 +3990,66 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G51" t="n">
-        <v>0.02324850559234619</v>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H51" t="n">
-        <v>0.04688292741775513</v>
+        <v>0.02154440879821777</v>
       </c>
       <c r="I51" t="n">
-        <v>0.07428276538848877</v>
+        <v>0.04204379320144654</v>
       </c>
       <c r="J51" t="n">
-        <v>0.01358250379562378</v>
+        <v>0.0664544939994812</v>
       </c>
       <c r="K51" t="n">
-        <v>0.003733384609222412</v>
+        <v>0.01213794946670532</v>
       </c>
       <c r="L51" t="n">
-        <v>19836723.2</v>
+        <v>0.003399837017059326</v>
       </c>
       <c r="M51" t="n">
-        <v>19836723.2</v>
+        <v>19632332.8</v>
       </c>
       <c r="N51" t="n">
-        <v>19836723.2</v>
+        <v>19632332.8</v>
       </c>
       <c r="O51" t="n">
-        <v>19836723.2</v>
+        <v>19647488</v>
       </c>
       <c r="P51" t="n">
-        <v>19836723.2</v>
+        <v>19647488</v>
       </c>
       <c r="Q51" t="n">
-        <v>400</v>
+        <v>19647488</v>
       </c>
       <c r="R51" t="n">
         <v>400</v>
       </c>
       <c r="S51" t="n">
+        <v>400</v>
+      </c>
+      <c r="T51" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>('SS512', 512)</t>
+          <t>SS512</t>
         </is>
       </c>
       <c r="B52" t="n">
+        <v>512</v>
+      </c>
+      <c r="C52" t="n">
         <v>20</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>15</v>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -3907,63 +4060,66 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G52" t="n">
-        <v>0.02276871204376221</v>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H52" t="n">
-        <v>0.03475840091705322</v>
+        <v>0.02265366315841675</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0525773286819458</v>
+        <v>0.03298702239990235</v>
       </c>
       <c r="J52" t="n">
-        <v>0.01709252595901489</v>
+        <v>0.05056545734405517</v>
       </c>
       <c r="K52" t="n">
-        <v>0.003538334369659424</v>
+        <v>0.01634042263031006</v>
       </c>
       <c r="L52" t="n">
-        <v>19836928</v>
+        <v>0.00355224609375</v>
       </c>
       <c r="M52" t="n">
-        <v>19836928</v>
+        <v>19593625.6</v>
       </c>
       <c r="N52" t="n">
-        <v>19836928</v>
+        <v>19593625.6</v>
       </c>
       <c r="O52" t="n">
-        <v>19836928</v>
+        <v>19593830.4</v>
       </c>
       <c r="P52" t="n">
-        <v>19836928</v>
+        <v>19597312</v>
       </c>
       <c r="Q52" t="n">
-        <v>240</v>
+        <v>19597312</v>
       </c>
       <c r="R52" t="n">
         <v>240</v>
       </c>
       <c r="S52" t="n">
+        <v>240</v>
+      </c>
+      <c r="T52" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>('SS512', 512)</t>
+          <t>SS512</t>
         </is>
       </c>
       <c r="B53" t="n">
+        <v>512</v>
+      </c>
+      <c r="C53" t="n">
         <v>25</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>5</v>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -3974,63 +4130,66 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G53" t="n">
-        <v>0.02763504981994629</v>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H53" t="n">
-        <v>0.07204229831695556</v>
+        <v>0.02572257518768311</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1148300886154175</v>
+        <v>0.07094779014587402</v>
       </c>
       <c r="J53" t="n">
-        <v>0.009586811065673828</v>
+        <v>0.1108579635620117</v>
       </c>
       <c r="K53" t="n">
-        <v>0.00380483865737915</v>
+        <v>0.009095931053161621</v>
       </c>
       <c r="L53" t="n">
-        <v>19900211.2</v>
+        <v>0.003550589084625244</v>
       </c>
       <c r="M53" t="n">
-        <v>19877478.4</v>
+        <v>19718553.6</v>
       </c>
       <c r="N53" t="n">
-        <v>19887308.8</v>
+        <v>19716710.4</v>
       </c>
       <c r="O53" t="n">
-        <v>19919667.2</v>
+        <v>19735347.2</v>
       </c>
       <c r="P53" t="n">
-        <v>19919667.2</v>
+        <v>19748249.6</v>
       </c>
       <c r="Q53" t="n">
-        <v>720</v>
+        <v>19748249.6</v>
       </c>
       <c r="R53" t="n">
         <v>720</v>
       </c>
       <c r="S53" t="n">
+        <v>720</v>
+      </c>
+      <c r="T53" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>('SS512', 512)</t>
+          <t>SS512</t>
         </is>
       </c>
       <c r="B54" t="n">
+        <v>512</v>
+      </c>
+      <c r="C54" t="n">
         <v>25</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>10</v>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -4041,63 +4200,66 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G54" t="n">
-        <v>0.02730401754379273</v>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H54" t="n">
-        <v>0.06014566421508789</v>
+        <v>0.1430224776268005</v>
       </c>
       <c r="I54" t="n">
-        <v>0.09388471841812134</v>
+        <v>0.05827250480651856</v>
       </c>
       <c r="J54" t="n">
-        <v>0.01318365335464478</v>
+        <v>0.09126741886138916</v>
       </c>
       <c r="K54" t="n">
-        <v>0.003811979293823242</v>
+        <v>0.0128038763999939</v>
       </c>
       <c r="L54" t="n">
-        <v>19840819.2</v>
+        <v>0.003490531444549561</v>
       </c>
       <c r="M54" t="n">
-        <v>19838771.2</v>
+        <v>19940761.6</v>
       </c>
       <c r="N54" t="n">
-        <v>19847168</v>
+        <v>19913318.4</v>
       </c>
       <c r="O54" t="n">
-        <v>19899187.2</v>
+        <v>19940147.2</v>
       </c>
       <c r="P54" t="n">
-        <v>19899187.2</v>
+        <v>19986432</v>
       </c>
       <c r="Q54" t="n">
-        <v>560</v>
+        <v>19986432</v>
       </c>
       <c r="R54" t="n">
         <v>560</v>
       </c>
       <c r="S54" t="n">
+        <v>560</v>
+      </c>
+      <c r="T54" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>('SS512', 512)</t>
+          <t>SS512</t>
         </is>
       </c>
       <c r="B55" t="n">
+        <v>512</v>
+      </c>
+      <c r="C55" t="n">
         <v>25</v>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>15</v>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -4108,63 +4270,66 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G55" t="n">
-        <v>0.02721133232116699</v>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H55" t="n">
-        <v>0.04946566820144653</v>
+        <v>0.02526119947433472</v>
       </c>
       <c r="I55" t="n">
-        <v>0.07574298381805419</v>
+        <v>0.04737660884857178</v>
       </c>
       <c r="J55" t="n">
-        <v>0.01735742092132568</v>
+        <v>0.07053129673004151</v>
       </c>
       <c r="K55" t="n">
-        <v>0.003688466548919678</v>
+        <v>0.01601302623748779</v>
       </c>
       <c r="L55" t="n">
-        <v>19902054.4</v>
+        <v>0.003432869911193848</v>
       </c>
       <c r="M55" t="n">
-        <v>19902259.2</v>
+        <v>19813580.8</v>
       </c>
       <c r="N55" t="n">
-        <v>19902259.2</v>
+        <v>19804979.2</v>
       </c>
       <c r="O55" t="n">
-        <v>19902259.2</v>
+        <v>19818905.6</v>
       </c>
       <c r="P55" t="n">
-        <v>19902259.2</v>
+        <v>19843072</v>
       </c>
       <c r="Q55" t="n">
-        <v>400</v>
+        <v>19843276.8</v>
       </c>
       <c r="R55" t="n">
         <v>400</v>
       </c>
       <c r="S55" t="n">
+        <v>400</v>
+      </c>
+      <c r="T55" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>('SS512', 512)</t>
+          <t>SS512</t>
         </is>
       </c>
       <c r="B56" t="n">
+        <v>512</v>
+      </c>
+      <c r="C56" t="n">
         <v>25</v>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>20</v>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -4175,63 +4340,66 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G56" t="n">
-        <v>0.02610464096069336</v>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H56" t="n">
-        <v>0.038114333152771</v>
+        <v>0.02620412111282349</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0560381531715393</v>
+        <v>0.03706772327423095</v>
       </c>
       <c r="J56" t="n">
-        <v>0.02056385278701782</v>
+        <v>0.05400549173355103</v>
       </c>
       <c r="K56" t="n">
-        <v>0.003502964973449707</v>
+        <v>0.02028580904006958</v>
       </c>
       <c r="L56" t="n">
-        <v>19902464</v>
+        <v>0.003553736209869385</v>
       </c>
       <c r="M56" t="n">
-        <v>19902464</v>
+        <v>19740262.4</v>
       </c>
       <c r="N56" t="n">
-        <v>19902464</v>
+        <v>19740262.4</v>
       </c>
       <c r="O56" t="n">
-        <v>19902464</v>
+        <v>19740467.2</v>
       </c>
       <c r="P56" t="n">
-        <v>19902464</v>
+        <v>19736371.2</v>
       </c>
       <c r="Q56" t="n">
-        <v>240</v>
+        <v>19736371.2</v>
       </c>
       <c r="R56" t="n">
         <v>240</v>
       </c>
       <c r="S56" t="n">
+        <v>240</v>
+      </c>
+      <c r="T56" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>('SS512', 512)</t>
+          <t>SS512</t>
         </is>
       </c>
       <c r="B57" t="n">
+        <v>512</v>
+      </c>
+      <c r="C57" t="n">
         <v>30</v>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>5</v>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -4242,63 +4410,66 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G57" t="n">
-        <v>0.03171069622039795</v>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H57" t="n">
-        <v>0.08846060037612916</v>
+        <v>0.03016242980957031</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1661802411079407</v>
+        <v>0.08619437217712403</v>
       </c>
       <c r="J57" t="n">
-        <v>0.009491896629333496</v>
+        <v>0.1343554615974426</v>
       </c>
       <c r="K57" t="n">
-        <v>0.003709232807159424</v>
+        <v>0.009208428859710693</v>
       </c>
       <c r="L57" t="n">
-        <v>19902464</v>
+        <v>0.003577244281768799</v>
       </c>
       <c r="M57" t="n">
-        <v>19902464</v>
+        <v>19869081.6</v>
       </c>
       <c r="N57" t="n">
-        <v>19902464</v>
+        <v>19851878.4</v>
       </c>
       <c r="O57" t="n">
-        <v>19902464</v>
+        <v>19859660.8</v>
       </c>
       <c r="P57" t="n">
-        <v>19902464</v>
+        <v>19881574.4</v>
       </c>
       <c r="Q57" t="n">
-        <v>880</v>
+        <v>19881574.4</v>
       </c>
       <c r="R57" t="n">
         <v>880</v>
       </c>
       <c r="S57" t="n">
+        <v>880</v>
+      </c>
+      <c r="T57" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>('SS512', 512)</t>
+          <t>SS512</t>
         </is>
       </c>
       <c r="B58" t="n">
+        <v>512</v>
+      </c>
+      <c r="C58" t="n">
         <v>30</v>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>10</v>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -4309,63 +4480,66 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G58" t="n">
-        <v>0.03142333030700684</v>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H58" t="n">
-        <v>0.07797465324401856</v>
+        <v>0.02956923246383667</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1193629384040833</v>
+        <v>0.07302021980285645</v>
       </c>
       <c r="J58" t="n">
-        <v>0.01332181692123413</v>
+        <v>0.1127437829971314</v>
       </c>
       <c r="K58" t="n">
-        <v>0.003718507289886474</v>
+        <v>0.01264294385910034</v>
       </c>
       <c r="L58" t="n">
-        <v>19927244.8</v>
+        <v>0.003412508964538574</v>
       </c>
       <c r="M58" t="n">
-        <v>19919257.6</v>
+        <v>19750912</v>
       </c>
       <c r="N58" t="n">
-        <v>19926425.6</v>
+        <v>19750912</v>
       </c>
       <c r="O58" t="n">
-        <v>19966361.6</v>
+        <v>19750912</v>
       </c>
       <c r="P58" t="n">
-        <v>19966361.6</v>
+        <v>19750912</v>
       </c>
       <c r="Q58" t="n">
-        <v>720</v>
+        <v>19750912</v>
       </c>
       <c r="R58" t="n">
         <v>720</v>
       </c>
       <c r="S58" t="n">
+        <v>720</v>
+      </c>
+      <c r="T58" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>('SS512', 512)</t>
+          <t>SS512</t>
         </is>
       </c>
       <c r="B59" t="n">
+        <v>512</v>
+      </c>
+      <c r="C59" t="n">
         <v>30</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>15</v>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -4376,63 +4550,66 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G59" t="n">
-        <v>0.03146786689758301</v>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H59" t="n">
-        <v>0.06641331911087037</v>
+        <v>0.02958519458770752</v>
       </c>
       <c r="I59" t="n">
-        <v>0.0985939621925354</v>
+        <v>0.06258289813995362</v>
       </c>
       <c r="J59" t="n">
-        <v>0.01709088087081909</v>
+        <v>0.09511903524398804</v>
       </c>
       <c r="K59" t="n">
-        <v>0.003586077690124512</v>
+        <v>0.01661460399627685</v>
       </c>
       <c r="L59" t="n">
-        <v>19986227.2</v>
+        <v>0.003577017784118652</v>
       </c>
       <c r="M59" t="n">
-        <v>19986227.2</v>
+        <v>19750912</v>
       </c>
       <c r="N59" t="n">
-        <v>19989913.6</v>
+        <v>19750912</v>
       </c>
       <c r="O59" t="n">
-        <v>20035993.6</v>
+        <v>19750912</v>
       </c>
       <c r="P59" t="n">
-        <v>20035993.6</v>
+        <v>19750912</v>
       </c>
       <c r="Q59" t="n">
-        <v>560</v>
+        <v>19750912</v>
       </c>
       <c r="R59" t="n">
         <v>560</v>
       </c>
       <c r="S59" t="n">
+        <v>560</v>
+      </c>
+      <c r="T59" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>('SS512', 512)</t>
+          <t>SS512</t>
         </is>
       </c>
       <c r="B60" t="n">
+        <v>512</v>
+      </c>
+      <c r="C60" t="n">
         <v>30</v>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>20</v>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -4443,63 +4620,66 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G60" t="n">
-        <v>0.03104461431503296</v>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H60" t="n">
-        <v>0.05455769300460815</v>
+        <v>0.02952190637588501</v>
       </c>
       <c r="I60" t="n">
-        <v>0.08014487028121949</v>
+        <v>0.05143321752548217</v>
       </c>
       <c r="J60" t="n">
-        <v>0.02066881656646729</v>
+        <v>0.07491036653518676</v>
       </c>
       <c r="K60" t="n">
-        <v>0.003698694705963135</v>
+        <v>0.01994013786315918</v>
       </c>
       <c r="L60" t="n">
-        <v>19943628.8</v>
+        <v>0.003517138957977295</v>
       </c>
       <c r="M60" t="n">
-        <v>19943628.8</v>
+        <v>19750912</v>
       </c>
       <c r="N60" t="n">
-        <v>19943628.8</v>
+        <v>19750912</v>
       </c>
       <c r="O60" t="n">
-        <v>19943628.8</v>
+        <v>19750912</v>
       </c>
       <c r="P60" t="n">
-        <v>19943628.8</v>
+        <v>19750912</v>
       </c>
       <c r="Q60" t="n">
-        <v>400</v>
+        <v>19750912</v>
       </c>
       <c r="R60" t="n">
         <v>400</v>
       </c>
       <c r="S60" t="n">
+        <v>400</v>
+      </c>
+      <c r="T60" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>('SS512', 512)</t>
+          <t>SS512</t>
         </is>
       </c>
       <c r="B61" t="n">
+        <v>512</v>
+      </c>
+      <c r="C61" t="n">
         <v>30</v>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>25</v>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>20/20</t>
-        </is>
-      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>20/20</t>
@@ -4510,43 +4690,48 @@
           <t>20/20</t>
         </is>
       </c>
-      <c r="G61" t="n">
-        <v>0.03062041997909546</v>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>20/20</t>
+        </is>
       </c>
       <c r="H61" t="n">
-        <v>0.04294040203094483</v>
+        <v>0.02879712581634521</v>
       </c>
       <c r="I61" t="n">
-        <v>0.05973590612411499</v>
+        <v>0.04022752046585083</v>
       </c>
       <c r="J61" t="n">
-        <v>0.024354088306427</v>
+        <v>0.0555842638015747</v>
       </c>
       <c r="K61" t="n">
-        <v>0.003506970405578613</v>
+        <v>0.02336739301681518</v>
       </c>
       <c r="L61" t="n">
-        <v>19943424</v>
+        <v>0.003421199321746826</v>
       </c>
       <c r="M61" t="n">
-        <v>19943424</v>
+        <v>19750912</v>
       </c>
       <c r="N61" t="n">
-        <v>19943424</v>
+        <v>19750912</v>
       </c>
       <c r="O61" t="n">
-        <v>19943424</v>
+        <v>19750912</v>
       </c>
       <c r="P61" t="n">
-        <v>19943424</v>
+        <v>19750912</v>
       </c>
       <c r="Q61" t="n">
-        <v>240</v>
+        <v>19750912</v>
       </c>
       <c r="R61" t="n">
         <v>240</v>
       </c>
       <c r="S61" t="n">
+        <v>240</v>
+      </c>
+      <c r="T61" t="n">
         <v>72</v>
       </c>
     </row>
